--- a/DJ_FXCM_Dollar_Index_result.xlsx
+++ b/DJ_FXCM_Dollar_Index_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001060849624179738</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C2">
-        <v>0.6697247706422018</v>
+        <v>0.001542089845115058</v>
       </c>
       <c r="D2">
-        <v>-0.0006978105620809196</v>
+        <v>0.001072211021639582</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001542089845115058</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C3">
-        <v>1.339449541284404</v>
+        <v>0.002572499080045532</v>
       </c>
       <c r="D3">
-        <v>-0.001478163675629012</v>
+        <v>0.001788651858074266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.002572499080045532</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C4">
-        <v>2.009174311926605</v>
+        <v>3.021573627570717e-05</v>
       </c>
       <c r="D4">
-        <v>-0.00291090104688325</v>
+        <v>2.100892212240133e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.021573627570717e-05</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C5">
-        <v>2.678899082568807</v>
+        <v>-0.0004018622940620276</v>
       </c>
       <c r="D5">
-        <v>-0.002444250619509751</v>
+        <v>-0.0002794137982553955</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0004018622940620276</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C6">
-        <v>3.348623853211009</v>
+        <v>0.0005031191861508688</v>
       </c>
       <c r="D6">
-        <v>-0.001846349124723231</v>
+        <v>0.0003498174495462351</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0005031191861508688</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C7">
-        <v>4.018348623853211</v>
+        <v>-0.001413624137908798</v>
       </c>
       <c r="D7">
-        <v>-0.003940622529140021</v>
+        <v>-0.0009828891526151493</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001413624137908798</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C8">
-        <v>4.688073394495413</v>
+        <v>0.001383411461075568</v>
       </c>
       <c r="D8">
-        <v>-0.003082937334564724</v>
+        <v>0.0009618823577150718</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001383411461075568</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C9">
-        <v>5.357798165137615</v>
+        <v>0.0009312739332383302</v>
       </c>
       <c r="D9">
-        <v>-0.003578656687107854</v>
+        <v>0.0006475123213779291</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0009312739332383302</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>6.232798165137615</v>
+        <v>-0.001816011774032233</v>
       </c>
       <c r="D10">
-        <v>-0.002827281408604094</v>
+        <v>-0.001335143705842135</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.001816011774032233</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C11">
-        <v>6.902522935779817</v>
+        <v>-0.0002566632322764661</v>
       </c>
       <c r="D11">
-        <v>-0.003429265501676689</v>
+        <v>-0.0001784572717135909</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0002566632322764661</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C12">
-        <v>7.572247706422019</v>
+        <v>-0.001816507144472013</v>
       </c>
       <c r="D12">
-        <v>-0.003496870022585899</v>
+        <v>-0.00126301264959346</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.001816507144472013</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C13">
-        <v>8.241972477064222</v>
+        <v>0.002627142197182408</v>
       </c>
       <c r="D13">
-        <v>-0.002776861103435971</v>
+        <v>0.001826645073992584</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.002627142197182408</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C14">
-        <v>8.911697247706423</v>
+        <v>-0.001616200613490548</v>
       </c>
       <c r="D14">
-        <v>-0.001970314785537917</v>
+        <v>-0.001123740044365525</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.001616200613490548</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C15">
-        <v>9.581422018348624</v>
+        <v>-0.0003404135566551503</v>
       </c>
       <c r="D15">
-        <v>-0.001201195217969311</v>
+        <v>-0.0002366886524267006</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0003404135566551503</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C16">
-        <v>10.25114678899082</v>
+        <v>0.001034792428329823</v>
       </c>
       <c r="D16">
-        <v>0.0002100072247398302</v>
+        <v>0.000719488459300269</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001034792428329823</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C17">
-        <v>10.92087155963303</v>
+        <v>-0.0001823402269263141</v>
       </c>
       <c r="D17">
-        <v>0.001528783842540049</v>
+        <v>-0.0001267806811762446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0001823402269263141</v>
+        <v>0.875</v>
       </c>
       <c r="C18">
-        <v>11.79587155963303</v>
+        <v>0.00202105428262378</v>
       </c>
       <c r="D18">
-        <v>0.0008392072995573297</v>
+        <v>0.00148589229607194</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.00202105428262378</v>
+        <v>0.875</v>
       </c>
       <c r="C19">
-        <v>12.67087155963303</v>
+        <v>0.000117510443468305</v>
       </c>
       <c r="D19">
-        <v>0.001774245668320332</v>
+        <v>8.639444479980594e-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000117510443468305</v>
+        <v>0.875</v>
       </c>
       <c r="C20">
-        <v>13.54587155963303</v>
+        <v>0.001533713243558665</v>
       </c>
       <c r="D20">
-        <v>0.002114164774104592</v>
+        <v>0.001127595984225007</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001533713243558665</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>14.54587155963303</v>
+        <v>0.003714040553340681</v>
       </c>
       <c r="D21">
-        <v>0.001021271955518289</v>
+        <v>0.002815067142443559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.003714040553340681</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>15.54587155963303</v>
+        <v>-0.000266281534218038</v>
       </c>
       <c r="D22">
-        <v>-0.000275340794180879</v>
+        <v>-0.0002018288133505741</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.000266281534218038</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C23">
-        <v>16.21559633027523</v>
+        <v>-0.001074776689252488</v>
       </c>
       <c r="D23">
-        <v>0.0006670934751411491</v>
+        <v>-0.0007472894109693308</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.001074776689252488</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>17.21559633027523</v>
+        <v>-0.001029553812747608</v>
       </c>
       <c r="D24">
-        <v>0.001524578120452154</v>
+        <v>-0.0007803531135480923</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.001029553812747608</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>18.21559633027523</v>
+        <v>-0.001890272746569721</v>
       </c>
       <c r="D25">
-        <v>0.001650212318663818</v>
+        <v>-0.001432737371254238</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.001890272746569721</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C26">
-        <v>18.88532110091743</v>
+        <v>0.0007187409142606072</v>
       </c>
       <c r="D26">
-        <v>-0.000544843516051922</v>
+        <v>0.0004997386711382139</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0007187409142606072</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C27">
-        <v>19.55504587155963</v>
+        <v>0.000920895475054806</v>
       </c>
       <c r="D27">
-        <v>-0.00238949765059858</v>
+        <v>0.0006402962066442445</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.000920895475054806</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C28">
-        <v>20.22477064220183</v>
+        <v>-0.003225626492778133</v>
       </c>
       <c r="D28">
-        <v>-0.002924152328792832</v>
+        <v>-0.002242769633822014</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.003225626492778133</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C29">
-        <v>20.89449541284403</v>
+        <v>0.00132101762847725</v>
       </c>
       <c r="D29">
-        <v>-0.002028129459009315</v>
+        <v>0.0009185000896804492</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.00132101762847725</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C30">
-        <v>21.56422018348623</v>
+        <v>-0.000763513241954783</v>
       </c>
       <c r="D30">
-        <v>-0.002772878241232705</v>
+        <v>-0.0005308687530658156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.000763513241954783</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C31">
-        <v>22.23394495412844</v>
+        <v>0.001157277745708285</v>
       </c>
       <c r="D31">
-        <v>-0.004129785809348258</v>
+        <v>0.0008046521789747287</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.001157277745708285</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C32">
-        <v>22.90366972477064</v>
+        <v>-0.0009271835447801635</v>
       </c>
       <c r="D32">
-        <v>-0.002804611142418601</v>
+        <v>-0.0006446682850193948</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0009271835447801635</v>
+        <v>0.875</v>
       </c>
       <c r="C33">
-        <v>23.77866972477064</v>
+        <v>-9.464226861233271e-05</v>
       </c>
       <c r="D33">
-        <v>-0.003273910231274016</v>
+        <v>-6.958161342963509e-05</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-9.464226861233271e-05</v>
+        <v>0.875</v>
       </c>
       <c r="C34">
-        <v>24.65366972477064</v>
+        <v>0.001007969239527284</v>
       </c>
       <c r="D34">
-        <v>-0.002097863848467896</v>
+        <v>0.0007410655619534823</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001007969239527284</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C35">
-        <v>25.32339449541284</v>
+        <v>0.001242252881203498</v>
       </c>
       <c r="D35">
-        <v>-0.001780421624601644</v>
+        <v>0.0008637351676422837</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.001242252881203498</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C36">
-        <v>25.99311926605504</v>
+        <v>0.001184607725061682</v>
       </c>
       <c r="D36">
-        <v>0.0002799678626097975</v>
+        <v>0.0008236546418835662</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.001184607725061682</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C37">
-        <v>26.66284403669724</v>
+        <v>0.002173551923199568</v>
       </c>
       <c r="D37">
-        <v>0.0009286798811219543</v>
+        <v>0.001511264947073564</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.002173551923199568</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C38">
-        <v>27.33256880733944</v>
+        <v>0.002031196493954113</v>
       </c>
       <c r="D38">
-        <v>0.0005767827490658125</v>
+        <v>0.001412285590772944</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.002031196493954113</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C39">
-        <v>28.00229357798164</v>
+        <v>-0.001062094548473169</v>
       </c>
       <c r="D39">
-        <v>-0.0008364072014685471</v>
+        <v>-0.0007384715517734836</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.001062094548473169</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C40">
-        <v>28.67201834862384</v>
+        <v>0.00144015796967345</v>
       </c>
       <c r="D40">
-        <v>-0.003261736973352329</v>
+        <v>0.001001338056195257</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.00144015796967345</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C41">
-        <v>29.34174311926605</v>
+        <v>0.0005235477233807018</v>
       </c>
       <c r="D41">
-        <v>-0.004370439151191042</v>
+        <v>0.0003640213578614262</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0005235477233807018</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C42">
-        <v>30.01146788990825</v>
+        <v>-0.001683287397893807</v>
       </c>
       <c r="D42">
-        <v>-0.005167245770929395</v>
+        <v>-0.001170385309472089</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.001683287397893807</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C43">
-        <v>30.68119266055045</v>
+        <v>-0.001997059422844671</v>
       </c>
       <c r="D43">
-        <v>-0.004548601281356541</v>
+        <v>-0.001388550174833345</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.001997059422844671</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C44">
-        <v>31.35091743119265</v>
+        <v>0.001451549229635418</v>
       </c>
       <c r="D44">
-        <v>-0.004267063901751203</v>
+        <v>0.001009258369347097</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001451549229635418</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C45">
-        <v>32.02064220183485</v>
+        <v>0.001320708739953602</v>
       </c>
       <c r="D45">
-        <v>-0.004474891375761207</v>
+        <v>0.0009182853203007256</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.001320708739953602</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C46">
-        <v>32.69036697247706</v>
+        <v>0.0001935033875213321</v>
       </c>
       <c r="D46">
-        <v>-0.004726375988312722</v>
+        <v>0.0001345423974369583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0001935033875213321</v>
+        <v>0.875</v>
       </c>
       <c r="C47">
-        <v>33.56536697247706</v>
+        <v>-0.003072946322735248</v>
       </c>
       <c r="D47">
-        <v>-0.001985250158828379</v>
+        <v>-0.002259250187613529</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.003072946322735248</v>
+        <v>0.875</v>
       </c>
       <c r="C48">
-        <v>34.44036697247706</v>
+        <v>-0.002582404989350806</v>
       </c>
       <c r="D48">
-        <v>-0.00243244074604911</v>
+        <v>-0.001898600998500936</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.002582404989350806</v>
+        <v>0.875</v>
       </c>
       <c r="C49">
-        <v>35.31536697247706</v>
+        <v>-0.0007484844354781472</v>
       </c>
       <c r="D49">
-        <v>-0.0027676125910857</v>
+        <v>-0.0005502906408643771</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.0007484844354781472</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C50">
-        <v>35.98509174311926</v>
+        <v>0.001380065802685237</v>
       </c>
       <c r="D50">
-        <v>-0.0005853556204383271</v>
+        <v>0.0009595561302179409</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.001380065802685237</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C51">
-        <v>36.65481651376147</v>
+        <v>-0.00114707153198701</v>
       </c>
       <c r="D51">
-        <v>-3.777469252879372e-05</v>
+        <v>-0.0007975558253635393</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.00114707153198701</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C52">
-        <v>37.32454128440367</v>
+        <v>-0.002089926267856868</v>
       </c>
       <c r="D52">
-        <v>0.001087557944047913</v>
+        <v>-0.001453120248413943</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.002089926267856868</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C53">
-        <v>37.99426605504588</v>
+        <v>0.002041050850472459</v>
       </c>
       <c r="D53">
-        <v>-0.0003260008284714086</v>
+        <v>0.001419137298994489</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.002041050850472459</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C54">
-        <v>38.66399082568808</v>
+        <v>-0.0007228204163105545</v>
       </c>
       <c r="D54">
-        <v>-0.0007335295487761646</v>
+        <v>-0.0005025751382056878</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0007228204163105545</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C55">
-        <v>39.33371559633029</v>
+        <v>0.001811361573476944</v>
       </c>
       <c r="D55">
-        <v>-0.002467196286224588</v>
+        <v>0.001259434947586655</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001811361573476944</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C56">
-        <v>40.00344036697249</v>
+        <v>0.0004889285444154012</v>
       </c>
       <c r="D56">
-        <v>-0.002107197201492123</v>
+        <v>0.0003399507335950826</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0004889285444154012</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C57">
-        <v>40.6731651376147</v>
+        <v>0.003173438053204691</v>
       </c>
       <c r="D57">
-        <v>-6.200816084779614e-05</v>
+        <v>0.002206483148770528</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.003173438053204691</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C58">
-        <v>41.3428899082569</v>
+        <v>0.0009991544889427217</v>
       </c>
       <c r="D58">
-        <v>-0.0006507378115890066</v>
+        <v>0.0006947094935866845</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0009991544889427217</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C59">
-        <v>42.01261467889911</v>
+        <v>-0.0005419964315542813</v>
       </c>
       <c r="D59">
-        <v>-0.0036294359305642</v>
+        <v>-0.0003768486962304486</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0005419964315542813</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C60">
-        <v>42.68233944954131</v>
+        <v>-0.002176613107991443</v>
       </c>
       <c r="D60">
-        <v>-0.001858856053501967</v>
+        <v>-0.001513393380824373</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002176613107991443</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C61">
-        <v>43.35206422018351</v>
+        <v>-0.003735523714054167</v>
       </c>
       <c r="D61">
-        <v>-0.001314951027425827</v>
+        <v>-0.002597299833399828</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.003735523714054167</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C62">
-        <v>44.02178899082572</v>
+        <v>-0.001707637173778309</v>
       </c>
       <c r="D62">
-        <v>0.0002892886319875536</v>
+        <v>-0.001187315644731426</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.001707637173778309</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C63">
-        <v>44.69151376146792</v>
+        <v>-0.001227251674412955</v>
       </c>
       <c r="D63">
-        <v>0.0003851117290308395</v>
+        <v>-0.0008533048679359034</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.001227251674412955</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C64">
-        <v>45.36123853211013</v>
+        <v>0.0009528440990411724</v>
       </c>
       <c r="D64">
-        <v>0.001232162250422874</v>
+        <v>0.0006625100010433931</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0009528440990411724</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C65">
-        <v>46.03096330275233</v>
+        <v>0.0004336274473271118</v>
       </c>
       <c r="D65">
-        <v>0.002669616788115763</v>
+        <v>0.0003015000259436095</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0004336274473271118</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C66">
-        <v>46.70068807339454</v>
+        <v>-0.0003200985146829538</v>
       </c>
       <c r="D66">
-        <v>0.004198079853075427</v>
+        <v>-0.0002225636570662425</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.0003200985146829538</v>
+        <v>0.875</v>
       </c>
       <c r="C67">
-        <v>47.57568807339454</v>
+        <v>-0.0003520633521674199</v>
       </c>
       <c r="D67">
-        <v>0.004906500277219473</v>
+        <v>-0.0002588392737456285</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.0003520633521674199</v>
+        <v>0.875</v>
       </c>
       <c r="C68">
-        <v>48.45068807339454</v>
+        <v>0.003837411515757339</v>
       </c>
       <c r="D68">
-        <v>0.006097143235594899</v>
+        <v>0.002821289985699508</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003837411515757339</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C69">
-        <v>49.12041284403674</v>
+        <v>-0.0006887686213357114</v>
       </c>
       <c r="D69">
-        <v>0.005510192470144637</v>
+        <v>-0.0004788990145386429</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.0006887686213357114</v>
+        <v>0.875</v>
       </c>
       <c r="C70">
-        <v>49.99541284403674</v>
+        <v>-0.0004692204509790798</v>
       </c>
       <c r="D70">
-        <v>0.004279099234505469</v>
+        <v>-0.0003449739372482763</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.0004692204509790798</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C71">
-        <v>50.66513761467895</v>
+        <v>0.003361139898794718</v>
       </c>
       <c r="D71">
-        <v>0.003417117102563391</v>
+        <v>0.002336991749330506</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003361139898794718</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C72">
-        <v>51.33486238532115</v>
+        <v>0.0008433910989271709</v>
       </c>
       <c r="D72">
-        <v>0.003666507827404719</v>
+        <v>0.0005864076173557587</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0008433910989271709</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C73">
-        <v>52.00458715596336</v>
+        <v>0.001733251617517695</v>
       </c>
       <c r="D73">
-        <v>0.003785795431996397</v>
+        <v>0.00120512530023077</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001733251617517695</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C74">
-        <v>52.67431192660556</v>
+        <v>-0.002177181172296372</v>
       </c>
       <c r="D74">
-        <v>0.003285953196237023</v>
+        <v>-0.001513788354444538</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.002177181172296372</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C75">
-        <v>53.34403669724777</v>
+        <v>-0.0006276809102434555</v>
       </c>
       <c r="D75">
-        <v>0.003683133881501761</v>
+        <v>-0.0004364248893588845</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.0006276809102434555</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C76">
-        <v>54.01376146788997</v>
+        <v>-0.002670215524949171</v>
       </c>
       <c r="D76">
-        <v>0.003327359360716744</v>
+        <v>-0.001856593845730181</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.002670215524949171</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C77">
-        <v>54.68348623853218</v>
+        <v>0.0005544751619535049</v>
       </c>
       <c r="D77">
-        <v>0.004589242092118039</v>
+        <v>0.0003855251247229261</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0005544751619535049</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C78">
-        <v>55.35321100917438</v>
+        <v>0.003150026132370698</v>
       </c>
       <c r="D78">
-        <v>0.004796877322105429</v>
+        <v>0.002190204901666134</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003150026132370698</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C79">
-        <v>56.02293577981659</v>
+        <v>-0.0009067688843824584</v>
       </c>
       <c r="D79">
-        <v>0.004760794354131151</v>
+        <v>-0.0006304740252291585</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0009067688843824584</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C80">
-        <v>56.69266055045879</v>
+        <v>-0.004587828669500027</v>
       </c>
       <c r="D80">
-        <v>0.00455471695078549</v>
+        <v>-0.003189905231795989</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.004587828669500027</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C81">
-        <v>57.36238532110099</v>
+        <v>0.00272706961134439</v>
       </c>
       <c r="D81">
-        <v>0.00534467369429952</v>
+        <v>0.001896124342770485</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.00272706961134439</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C82">
-        <v>58.0321100917432</v>
+        <v>0.0008377294282428949</v>
       </c>
       <c r="D82">
-        <v>0.00419052183542841</v>
+        <v>0.0005824710725897035</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0008377294282428949</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C83">
-        <v>58.7018348623854</v>
+        <v>0.002470870295757877</v>
       </c>
       <c r="D83">
-        <v>0.005026401714828255</v>
+        <v>0.001717989631113732</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.002470870295757877</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C84">
-        <v>59.37155963302761</v>
+        <v>0.0001475879509289513</v>
       </c>
       <c r="D84">
-        <v>0.004165397398977309</v>
+        <v>0.0001026175148928605</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0001475879509289513</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C85">
-        <v>60.04128440366981</v>
+        <v>0.001304637969790079</v>
       </c>
       <c r="D85">
-        <v>0.0023397057287517</v>
+        <v>0.0009071113559884969</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.001304637969790079</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C86">
-        <v>60.71100917431202</v>
+        <v>0.002213985733270363</v>
       </c>
       <c r="D86">
-        <v>0.003726086097057975</v>
+        <v>0.001539378469085346</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.002213985733270363</v>
+        <v>0.875</v>
       </c>
       <c r="C87">
-        <v>61.58600917431202</v>
+        <v>0.002139756483922284</v>
       </c>
       <c r="D87">
-        <v>0.003160146117597367</v>
+        <v>0.001573162929004791</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.002139756483922284</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C88">
-        <v>62.25573394495422</v>
+        <v>0.00109111813353735</v>
       </c>
       <c r="D88">
-        <v>0.004523852012629804</v>
+        <v>0.0007586515742876624</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.00109111813353735</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C89">
-        <v>62.92545871559643</v>
+        <v>0.001833843404531521</v>
       </c>
       <c r="D89">
-        <v>0.005472670150252751</v>
+        <v>0.001275066505708716</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001833843404531521</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C90">
-        <v>63.59518348623863</v>
+        <v>-0.0009040290226671743</v>
       </c>
       <c r="D90">
-        <v>0.00595621671848356</v>
+        <v>-0.0006285690065700954</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.0009040290226671743</v>
+        <v>0.875</v>
       </c>
       <c r="C91">
-        <v>64.47018348623862</v>
+        <v>-0.001723456584370453</v>
       </c>
       <c r="D91">
-        <v>0.006112796070132492</v>
+        <v>-0.001267096526475248</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.001723456584370453</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C92">
-        <v>65.13990825688083</v>
+        <v>-0.001327635825976614</v>
       </c>
       <c r="D92">
-        <v>0.004051278346979157</v>
+        <v>-0.0009231017050303487</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.001327635825976614</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C93">
-        <v>65.80963302752303</v>
+        <v>0.0003841147614274121</v>
       </c>
       <c r="D93">
-        <v>0.003685229177454107</v>
+        <v>0.0002670739853981731</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0003841147614274121</v>
+        <v>0.875</v>
       </c>
       <c r="C94">
-        <v>66.68463302752303</v>
+        <v>0.000166995481427179</v>
       </c>
       <c r="D94">
-        <v>0.003720848174121326</v>
+        <v>0.0001227761675996809</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.000166995481427179</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C95">
-        <v>67.35435779816524</v>
+        <v>-0.0007698633590411674</v>
       </c>
       <c r="D95">
-        <v>0.003116632162533237</v>
+        <v>-0.0005352839728082264</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.0007698633590411674</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C96">
-        <v>68.02408256880744</v>
+        <v>0.0006117427352645421</v>
       </c>
       <c r="D96">
-        <v>0.003438461587966265</v>
+        <v>0.0004253431181304798</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0006117427352645421</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C97">
-        <v>68.69380733944965</v>
+        <v>-0.0005479684349136704</v>
       </c>
       <c r="D97">
-        <v>0.004155452040952702</v>
+        <v>-0.0003810010144909504</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0005479684349136704</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C98">
-        <v>69.36353211009185</v>
+        <v>0.001943567807623836</v>
       </c>
       <c r="D98">
-        <v>0.003776368007325389</v>
+        <v>0.001351357595174795</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001943567807623836</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C99">
-        <v>70.03325688073406</v>
+        <v>0.0003198024179980052</v>
       </c>
       <c r="D99">
-        <v>0.002050415969726353</v>
+        <v>0.0002223577818183907</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0003198024179980052</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C100">
-        <v>70.70298165137626</v>
+        <v>-5.557544549361637e-05</v>
       </c>
       <c r="D100">
-        <v>0.003631797018271185</v>
+        <v>-3.864146137758875e-05</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-5.557544549361637e-05</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C101">
-        <v>71.37270642201847</v>
+        <v>-0.0003174030336214884</v>
       </c>
       <c r="D101">
-        <v>0.002309785178695033</v>
+        <v>-0.0002206894961592894</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.0003174030336214884</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C102">
-        <v>72.04243119266067</v>
+        <v>0.00121670140806529</v>
       </c>
       <c r="D102">
-        <v>0.003762226613648849</v>
+        <v>0.0008459692954366535</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.00121670140806529</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C103">
-        <v>72.71215596330288</v>
+        <v>-0.001777639349672455</v>
       </c>
       <c r="D103">
-        <v>0.003270752802352373</v>
+        <v>-0.001235987973889301</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.001777639349672455</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C104">
-        <v>73.38188073394508</v>
+        <v>0.001287432805137101</v>
       </c>
       <c r="D104">
-        <v>0.003763274134853909</v>
+        <v>0.0008951486501653025</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.001287432805137101</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C105">
-        <v>74.05160550458729</v>
+        <v>-0.001326129781215712</v>
       </c>
       <c r="D105">
-        <v>0.004343341213687462</v>
+        <v>-0.0009220545560611517</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.001326129781215712</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C106">
-        <v>74.72133027522949</v>
+        <v>-0.002811953495042374</v>
       </c>
       <c r="D106">
-        <v>0.002833982601884373</v>
+        <v>-0.001955143884302943</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.002811953495042374</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C107">
-        <v>75.3910550458717</v>
+        <v>0.00213532064898736</v>
       </c>
       <c r="D107">
-        <v>0.005991189382137945</v>
+        <v>0.001484682842463053</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.00213532064898736</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C108">
-        <v>76.0607798165139</v>
+        <v>-0.0008716679432687613</v>
       </c>
       <c r="D108">
-        <v>0.0065103379379263</v>
+        <v>-0.0006060684330055615</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.0008716679432687613</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C109">
-        <v>76.7305045871561</v>
+        <v>0.002100397137306587</v>
       </c>
       <c r="D109">
-        <v>0.006509294839489218</v>
+        <v>0.001460400616458452</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.002100397137306587</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C110">
-        <v>77.40022935779831</v>
+        <v>0.001461381744661594</v>
       </c>
       <c r="D110">
-        <v>0.007212484364410392</v>
+        <v>0.001016094891236466</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.001461381744661594</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C111">
-        <v>78.06995412844051</v>
+        <v>0.0007447645649740764</v>
       </c>
       <c r="D111">
-        <v>0.00701812784469233</v>
+        <v>0.0005178328471725542</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0007447645649740764</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C112">
-        <v>78.73967889908272</v>
+        <v>0.0002411655058196516</v>
       </c>
       <c r="D112">
-        <v>0.006210899887348405</v>
+        <v>0.0001676817431865146</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0002411655058196516</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C113">
-        <v>79.40940366972492</v>
+        <v>-0.003175175776529926</v>
       </c>
       <c r="D113">
-        <v>0.005243303494386985</v>
+        <v>-0.002207691383237397</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.003175175776529926</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C114">
-        <v>80.07912844036713</v>
+        <v>-0.0005637935793814108</v>
       </c>
       <c r="D114">
-        <v>0.004806289940483317</v>
+        <v>-0.0003920041959016184</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.0005637935793814108</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C115">
-        <v>80.74885321100933</v>
+        <v>5.486083099448535e-05</v>
       </c>
       <c r="D115">
-        <v>0.005930638503108642</v>
+        <v>3.814459179205916e-05</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.486083099448535e-05</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C116">
-        <v>81.41857798165154</v>
+        <v>-0.0009306211740209847</v>
       </c>
       <c r="D116">
-        <v>0.006615682248809561</v>
+        <v>-0.0006470584596074676</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.0009306211740209847</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C117">
-        <v>82.08830275229374</v>
+        <v>0.0004956857679818683</v>
       </c>
       <c r="D117">
-        <v>0.006981125775516774</v>
+        <v>0.000344649013404524</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004956857679818683</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C118">
-        <v>82.75802752293595</v>
+        <v>0.001104317800791677</v>
       </c>
       <c r="D118">
-        <v>0.004681823181032772</v>
+        <v>0.0007678292682831819</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001104317800791677</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C119">
-        <v>83.42775229357815</v>
+        <v>-0.0005838700426021859</v>
       </c>
       <c r="D119">
-        <v>0.002623095184139746</v>
+        <v>-0.0004059633080824334</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.0005838700426021859</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C120">
-        <v>84.09747706422036</v>
+        <v>-0.002658333246271738</v>
       </c>
       <c r="D120">
-        <v>0.003252407025448488</v>
+        <v>-0.001848332128554301</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.002658333246271738</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C121">
-        <v>84.76720183486256</v>
+        <v>0.002435663173015357</v>
       </c>
       <c r="D121">
-        <v>0.002423685870936543</v>
+        <v>0.001693510211082319</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.002435663173015357</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C122">
-        <v>85.43692660550477</v>
+        <v>-0.002036179423617668</v>
       </c>
       <c r="D122">
-        <v>0.001497203959968018</v>
+        <v>-0.001415750208688847</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.002036179423617668</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C123">
-        <v>86.10665137614697</v>
+        <v>0.002237068742751092</v>
       </c>
       <c r="D123">
-        <v>-0.0006443910023803011</v>
+        <v>0.001555428024989141</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.002237068742751092</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C124">
-        <v>86.77637614678918</v>
+        <v>-0.0007569742054123196</v>
       </c>
       <c r="D124">
-        <v>-0.002426030535105082</v>
+        <v>-0.000526322178121468</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.0007569742054123196</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C125">
-        <v>87.44610091743138</v>
+        <v>0.0007585876108748835</v>
       </c>
       <c r="D125">
-        <v>-0.00210523857794746</v>
+        <v>0.0005274439747047308</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0007585876108748835</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C126">
-        <v>88.11582568807358</v>
+        <v>0.000893426681123799</v>
       </c>
       <c r="D126">
-        <v>-0.001090529696861891</v>
+        <v>0.0006211972263239541</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.000893426681123799</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C127">
-        <v>88.78555045871579</v>
+        <v>-0.002324733301328763</v>
       </c>
       <c r="D127">
-        <v>-0.001214511536952037</v>
+        <v>-0.001616380962466746</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.002324733301328763</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C128">
-        <v>89.45527522935799</v>
+        <v>0.004862769976492487</v>
       </c>
       <c r="D128">
-        <v>-0.0001116412103293071</v>
+        <v>0.003381071200883421</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.004862769976492487</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C129">
-        <v>90.1250000000002</v>
+        <v>0.0007995991983218431</v>
       </c>
       <c r="D129">
-        <v>0.000370144500465507</v>
+        <v>0.0005559592238096134</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0007995991983218431</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C130">
-        <v>90.7947247706424</v>
+        <v>-1.606593459158034e-06</v>
       </c>
       <c r="D130">
-        <v>-0.0001105877368451383</v>
+        <v>-1.117060215174934e-06</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.606593459158034e-06</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C131">
-        <v>91.46444954128461</v>
+        <v>0.001083061436126798</v>
       </c>
       <c r="D131">
-        <v>-0.0006522985939367456</v>
+        <v>0.0007530497737252803</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001083061436126798</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C132">
-        <v>92.13417431192681</v>
+        <v>-0.0002993503798141006</v>
       </c>
       <c r="D132">
-        <v>-0.001981731640373133</v>
+        <v>-0.0002081375333515188</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.0002993503798141006</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C133">
-        <v>92.80389908256902</v>
+        <v>-0.001243302750934205</v>
       </c>
       <c r="D133">
-        <v>-0.003052299946570241</v>
+        <v>-0.000864465139310352</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.001243302750934205</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C134">
-        <v>93.47362385321122</v>
+        <v>-0.00149030425200003</v>
       </c>
       <c r="D134">
-        <v>-0.003266560125616502</v>
+        <v>-0.001036204634673243</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.00149030425200003</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C135">
-        <v>94.14334862385343</v>
+        <v>-0.000673093825382054</v>
       </c>
       <c r="D135">
-        <v>-0.001700653267156966</v>
+        <v>-0.0004680003700551829</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.000673093825382054</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C136">
-        <v>94.81307339449563</v>
+        <v>0.001731735934320966</v>
       </c>
       <c r="D136">
-        <v>-0.0007928580754880537</v>
+        <v>0.001204071449682442</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.001731735934320966</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C137">
-        <v>95.48279816513784</v>
+        <v>0.001055113076537495</v>
       </c>
       <c r="D137">
-        <v>-0.0003972875859874965</v>
+        <v>0.0007336173526615383</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.001055113076537495</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C138">
-        <v>96.15252293578004</v>
+        <v>0.0005628607606222857</v>
       </c>
       <c r="D138">
-        <v>0.0002728038956489836</v>
+        <v>0.0003913556094668562</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0005628607606222857</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C139">
-        <v>96.82224770642225</v>
+        <v>-0.003541415054996833</v>
       </c>
       <c r="D139">
-        <v>0.001531267788784848</v>
+        <v>-0.0024623365922526</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.003541415054996833</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C140">
-        <v>97.49197247706445</v>
+        <v>-0.003170879004716909</v>
       </c>
       <c r="D140">
-        <v>0.0005333577029704622</v>
+        <v>-0.00220470384907395</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.003170879004716909</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C141">
-        <v>98.16169724770666</v>
+        <v>0.0009692740896500851</v>
       </c>
       <c r="D141">
-        <v>0.0008618099737544959</v>
+        <v>0.0006739337303884214</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0009692740896500851</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C142">
-        <v>98.83142201834886</v>
+        <v>-0.001276406846155709</v>
       </c>
       <c r="D142">
-        <v>0.0007038463634936763</v>
+        <v>-0.0008874823298264168</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.001276406846155709</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C143">
-        <v>99.50114678899106</v>
+        <v>-0.001426979204719458</v>
       </c>
       <c r="D143">
-        <v>0.0005924284148787277</v>
+        <v>-0.0009921748955142959</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.001426979204719458</v>
+        <v>0.875</v>
       </c>
       <c r="C144">
-        <v>100.3761467889911</v>
+        <v>-0.002998104312544214</v>
       </c>
       <c r="D144">
-        <v>-4.106233288811e-05</v>
+        <v>-0.002204225853372975</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.002998104312544214</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C145">
-        <v>101.0458715596333</v>
+        <v>-0.002744103833443035</v>
       </c>
       <c r="D145">
-        <v>-0.0005721924174764988</v>
+        <v>-0.00190796819268434</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.002744103833443035</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C146">
-        <v>101.7155963302755</v>
+        <v>0.0004940878461692222</v>
       </c>
       <c r="D146">
-        <v>-0.0006838395848378995</v>
+        <v>0.0003435379825624076</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0004940878461692222</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C147">
-        <v>102.3853211009177</v>
+        <v>0.001562867504492971</v>
       </c>
       <c r="D147">
-        <v>-0.0002211547514128157</v>
+        <v>0.00108665767366796</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001562867504492971</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C148">
-        <v>103.0550458715599</v>
+        <v>-0.0001909584045591828</v>
       </c>
       <c r="D148">
-        <v>0.0003176865312374999</v>
+        <v>-0.0001327728774634331</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.0001909584045591828</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C149">
-        <v>103.7247706422021</v>
+        <v>0.001698654882476447</v>
       </c>
       <c r="D149">
-        <v>0.0014733750935047</v>
+        <v>0.00118107028116591</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001698654882476447</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C150">
-        <v>104.3944954128443</v>
+        <v>0.0007420524699899289</v>
       </c>
       <c r="D150">
-        <v>0.001308556410684351</v>
+        <v>0.0005159471346487685</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0007420524699899289</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C151">
-        <v>105.0642201834865</v>
+        <v>-0.0007404298967514933</v>
       </c>
       <c r="D151">
-        <v>0.001552590191239964</v>
+        <v>-0.0005148189637350054</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.0007404298967514933</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C152">
-        <v>105.7339449541287</v>
+        <v>-0.0008343499413090427</v>
       </c>
       <c r="D152">
-        <v>0.001851263674271775</v>
+        <v>-0.0005801213241950548</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.0008343499413090427</v>
+        <v>0.875</v>
       </c>
       <c r="C153">
-        <v>106.6089449541287</v>
+        <v>-0.001861126412713077</v>
       </c>
       <c r="D153">
-        <v>0.00170617579897141</v>
+        <v>-0.001368312282575714</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.001861126412713077</v>
+        <v>0.875</v>
       </c>
       <c r="C154">
-        <v>107.4839449541287</v>
+        <v>-0.001498731325069613</v>
       </c>
       <c r="D154">
-        <v>0.0001813308600732122</v>
+        <v>-0.001101877049492973</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.001498731325069613</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C155">
-        <v>108.1536697247709</v>
+        <v>-0.0003300062486690791</v>
       </c>
       <c r="D155">
-        <v>-0.0008314744585671957</v>
+        <v>-0.0002294524785010299</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.0003300062486690791</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C156">
-        <v>108.8233944954131</v>
+        <v>0.002411829628938378</v>
       </c>
       <c r="D156">
-        <v>-0.001599561639027771</v>
+        <v>0.001676938810443751</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.002411829628938378</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C157">
-        <v>109.4931192660553</v>
+        <v>0.001398197682350499</v>
       </c>
       <c r="D157">
-        <v>-0.002277698354834054</v>
+        <v>0.0009721631785567398</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001398197682350499</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>110.4931192660553</v>
+        <v>0.0005218933564883343</v>
       </c>
       <c r="D158">
-        <v>-0.001828055525542675</v>
+        <v>0.0003955704895005571</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0005218933564883343</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>111.4931192660553</v>
+        <v>0.0008840808447239112</v>
       </c>
       <c r="D159">
-        <v>-0.001787932988145649</v>
+        <v>0.0006700914816364801</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0008840808447239112</v>
+        <v>0.875</v>
       </c>
       <c r="C160">
-        <v>112.3681192660553</v>
+        <v>0.001761773860849303</v>
       </c>
       <c r="D160">
-        <v>-0.001825729519808616</v>
+        <v>0.00129526763816477</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001761773860849303</v>
+        <v>0.875</v>
       </c>
       <c r="C161">
-        <v>113.2431192660553</v>
+        <v>-0.001397014180744449</v>
       </c>
       <c r="D161">
-        <v>-0.003718693599695417</v>
+        <v>-0.001027093941275323</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.001397014180744449</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C162">
-        <v>113.2609764089125</v>
+        <v>0.0005971080541904428</v>
       </c>
       <c r="D162">
-        <v>-0.003180164432005917</v>
+        <v>0.0003308084609159051</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0005971080541904428</v>
+        <v>0.875</v>
       </c>
       <c r="C163">
-        <v>114.1359764089125</v>
+        <v>-0.0002211395662925497</v>
       </c>
       <c r="D163">
-        <v>-0.004032439910262455</v>
+        <v>-0.0001625832520857416</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.0002211395662925497</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C164">
-        <v>114.1538335517696</v>
+        <v>-0.0002025516655450588</v>
       </c>
       <c r="D164">
-        <v>-0.004325316378358919</v>
+        <v>-0.0001122172180808385</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.0002025516655450588</v>
+        <v>0.875</v>
       </c>
       <c r="C165">
-        <v>115.0288335517696</v>
+        <v>-0.0008868489962985393</v>
       </c>
       <c r="D165">
-        <v>-0.002057204214263922</v>
+        <v>-0.000652017168815665</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.0008868489962985393</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C166">
-        <v>115.0466906946267</v>
+        <v>-0.0009655651050106684</v>
       </c>
       <c r="D166">
-        <v>-0.001216039160450054</v>
+        <v>-0.0005349402073226901</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.0009655651050106684</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C167">
-        <v>115.0645478374839</v>
+        <v>-0.0002029683725428555</v>
       </c>
       <c r="D167">
-        <v>-0.001305810106842002</v>
+        <v>-0.0001124480811543251</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.0002029683725428555</v>
+        <v>0.875</v>
       </c>
       <c r="C168">
-        <v>115.9395478374839</v>
+        <v>0.0006477309756647287</v>
       </c>
       <c r="D168">
-        <v>-0.0008697452347662157</v>
+        <v>0.0004762160397878554</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0006477309756647287</v>
+        <v>0.875</v>
       </c>
       <c r="C169">
-        <v>116.8145478374839</v>
+        <v>0.0007543454302485486</v>
       </c>
       <c r="D169">
-        <v>-0.0007890050670529918</v>
+        <v>0.0005545996824628795</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0007543454302485486</v>
+        <v>0.875</v>
       </c>
       <c r="C170">
-        <v>117.6895478374839</v>
+        <v>0.00161789457082584</v>
       </c>
       <c r="D170">
-        <v>-0.0008857262035338226</v>
+        <v>0.001189486645319482</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.00161789457082584</v>
+        <v>0.875</v>
       </c>
       <c r="C171">
-        <v>118.5645478374839</v>
+        <v>-0.0002307362561264625</v>
       </c>
       <c r="D171">
-        <v>-0.00156866982318894</v>
+        <v>-0.0001696388010705471</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.0002307362561264625</v>
+        <v>0.875</v>
       </c>
       <c r="C172">
-        <v>119.4395478374839</v>
+        <v>0.0003416326349068299</v>
       </c>
       <c r="D172">
-        <v>-0.004059719888120924</v>
+        <v>0.0002511705423546566</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0003416326349068299</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C173">
-        <v>119.457404980341</v>
+        <v>0.000542971865792552</v>
       </c>
       <c r="D173">
-        <v>-0.00547411042754555</v>
+        <v>0.0003008160516055998</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.000542971865792552</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C174">
-        <v>119.4752621231981</v>
+        <v>-0.0002637617292169381</v>
       </c>
       <c r="D174">
-        <v>-0.007780315254795372</v>
+        <v>-0.0001461286798569022</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.0002637617292169381</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C175">
-        <v>119.4931192660553</v>
+        <v>-0.002772083725389507</v>
       </c>
       <c r="D175">
-        <v>-0.005755569338896314</v>
+        <v>-0.001535783589403154</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.002772083725389507</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C176">
-        <v>119.5109764089124</v>
+        <v>-0.001841224028208188</v>
       </c>
       <c r="D176">
-        <v>-0.004905312202509934</v>
+        <v>-0.001020070794052074</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.001841224028208188</v>
+        <v>0.875</v>
       </c>
       <c r="C177">
-        <v>120.3859764089124</v>
+        <v>-0.001075275917544971</v>
       </c>
       <c r="D177">
-        <v>-0.005707825554996002</v>
+        <v>-0.0007905498708117478</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.001075275917544971</v>
+        <v>0.875</v>
       </c>
       <c r="C178">
-        <v>121.2609764089124</v>
+        <v>-0.0009493506698969867</v>
       </c>
       <c r="D178">
-        <v>-0.003565553398309625</v>
+        <v>-0.0006979688070719957</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.0009493506698969867</v>
+        <v>0.875</v>
       </c>
       <c r="C179">
-        <v>122.1359764089124</v>
+        <v>0.0006294729532445587</v>
       </c>
       <c r="D179">
-        <v>-0.002028215501495905</v>
+        <v>0.0004627926225699767</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0006294729532445587</v>
+        <v>0.875</v>
       </c>
       <c r="C180">
-        <v>123.0109764089124</v>
+        <v>5.616914239858772e-05</v>
       </c>
       <c r="D180">
-        <v>-0.001195070267874045</v>
+        <v>4.129591999809023e-05</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5.616914239858772e-05</v>
+        <v>0.875</v>
       </c>
       <c r="C181">
-        <v>123.8859764089124</v>
+        <v>-5.291287408226708e-05</v>
       </c>
       <c r="D181">
-        <v>-0.002051045839483119</v>
+        <v>-3.890189028460693e-05</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-5.291287408226708e-05</v>
+        <v>0.875</v>
       </c>
       <c r="C182">
-        <v>124.7609764089124</v>
+        <v>-0.002650036011093704</v>
       </c>
       <c r="D182">
-        <v>-0.0009984804328982944</v>
+        <v>-0.001948323766982337</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.002650036011093704</v>
+        <v>0.875</v>
       </c>
       <c r="C183">
-        <v>125.6359764089124</v>
+        <v>0.0007539084880505698</v>
       </c>
       <c r="D183">
-        <v>-0.001132205276690845</v>
+        <v>0.0005542784397078544</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0007539084880505698</v>
+        <v>0.875</v>
       </c>
       <c r="C184">
-        <v>126.5109764089124</v>
+        <v>-0.001193134477695423</v>
       </c>
       <c r="D184">
-        <v>-0.001730866883926839</v>
+        <v>-0.0008772002532677483</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.001193134477695423</v>
+        <v>0.875</v>
       </c>
       <c r="C185">
-        <v>127.3859764089124</v>
+        <v>-0.0004100094637315976</v>
       </c>
       <c r="D185">
-        <v>-0.00163527126026895</v>
+        <v>-0.000301441633069079</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.0004100094637315976</v>
+        <v>0.875</v>
       </c>
       <c r="C186">
-        <v>128.2609764089124</v>
+        <v>0.003175220795743172</v>
       </c>
       <c r="D186">
-        <v>-2.06031232056667e-05</v>
+        <v>0.002334443047515344</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.003175220795743172</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C187">
-        <v>128.9307011795546</v>
+        <v>0.001295573097886304</v>
       </c>
       <c r="D187">
-        <v>-0.00019539536919624</v>
+        <v>0.0009008085743472282</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.001295573097886304</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C188">
-        <v>129.6004259501968</v>
+        <v>-0.0001382663516391602</v>
       </c>
       <c r="D188">
-        <v>-0.001288761106638385</v>
+        <v>-9.613623137395118e-05</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.0001382663516391602</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C189">
-        <v>130.270150720839</v>
+        <v>0.0006716326535833872</v>
       </c>
       <c r="D189">
-        <v>-0.001057525698957661</v>
+        <v>0.0004669844211388456</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0006716326535833872</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C190">
-        <v>130.9398754914812</v>
+        <v>0.0001243570316358245</v>
       </c>
       <c r="D190">
-        <v>-0.0003469132723702915</v>
+        <v>8.646511768473822e-05</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0001243570316358245</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>131.9398754914812</v>
+        <v>-0.0001276084033090541</v>
       </c>
       <c r="D191">
-        <v>0.0004503464282800473</v>
+        <v>-9.672113648083076e-05</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.0001276084033090541</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>132.9398754914812</v>
+        <v>-0.0009010372295570335</v>
       </c>
       <c r="D192">
-        <v>0.0008409781577727808</v>
+        <v>-0.0006829436196551175</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.0009010372295570335</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>133.9398754914812</v>
+        <v>-0.003286550726292248</v>
       </c>
       <c r="D193">
-        <v>0.001000953500058162</v>
+        <v>-0.002491050064931984</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.003286550726292248</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>134.9398754914812</v>
+        <v>-0.001866066973139624</v>
       </c>
       <c r="D194">
-        <v>0.0005451304363669177</v>
+        <v>-0.001414390539424626</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.001866066973139624</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>135.9398754914812</v>
+        <v>-0.003042676362341012</v>
       </c>
       <c r="D195">
-        <v>-0.001099226454944623</v>
+        <v>-0.002306204827249822</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.003042676362341012</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>136.9398754914812</v>
+        <v>0.002671335375444173</v>
       </c>
       <c r="D196">
-        <v>0.001243472502401862</v>
+        <v>0.002024745915899058</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.002671335375444173</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>137.9398754914812</v>
+        <v>0.001121781231322672</v>
       </c>
       <c r="D197">
-        <v>0.001237160791537041</v>
+        <v>0.0008502571363863793</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.001121781231322672</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>138.9398754914812</v>
+        <v>-0.001058790780081864</v>
       </c>
       <c r="D198">
-        <v>0.002117052244352406</v>
+        <v>-0.0008025133524860679</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.001058790780081864</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>139.9398754914812</v>
+        <v>0.002826392858011673</v>
       </c>
       <c r="D199">
-        <v>0.003239625467877981</v>
+        <v>0.002142272156686377</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.002826392858011673</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>140.9398754914812</v>
+        <v>0.002028276770690951</v>
       </c>
       <c r="D200">
-        <v>0.004416791730257677</v>
+        <v>0.00153733789681372</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.002028276770690951</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>141.9398754914812</v>
+        <v>0.001099204753534977</v>
       </c>
       <c r="D201">
-        <v>0.004410510793309217</v>
+        <v>0.0008331452336218602</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.001099204753534977</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>142.9398754914812</v>
+        <v>-0.001129325811698223</v>
       </c>
       <c r="D202">
-        <v>0.003699325291195936</v>
+        <v>-0.0008559755716090738</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.001129325811698223</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>143.9398754914812</v>
+        <v>0.001388695333819356</v>
       </c>
       <c r="D203">
-        <v>0.004015736685266581</v>
+        <v>0.001052565406584824</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.001388695333819356</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>144.9398754914812</v>
+        <v>-0.000176429004248746</v>
       </c>
       <c r="D204">
-        <v>0.003593471168588879</v>
+        <v>-0.0001337248437925504</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.000176429004248746</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>145.9398754914812</v>
+        <v>-0.0007898403037991386</v>
       </c>
       <c r="D205">
-        <v>0.003704041162413456</v>
+        <v>-0.0005986616072359945</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.0007898403037991386</v>
+        <v>1</v>
       </c>
       <c r="C206">
-        <v>146.9398754914812</v>
+        <v>0.0001261234652751853</v>
       </c>
       <c r="D206">
-        <v>0.004960385931479747</v>
+        <v>9.559562365788946e-05</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0001261234652751853</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>147.9398754914812</v>
+        <v>0.002130301920981736</v>
       </c>
       <c r="D207">
-        <v>0.006608596959633593</v>
+        <v>0.001614668137063283</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.002130301920981736</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>148.9398754914812</v>
+        <v>-0.000230611014647053</v>
       </c>
       <c r="D208">
-        <v>0.008518822631851615</v>
+        <v>-0.0001747922459905733</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.000230611014647053</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>149.9398754914812</v>
+        <v>-0.001442524985378668</v>
       </c>
       <c r="D209">
-        <v>0.006610161175671623</v>
+        <v>-0.001093365737442145</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.001442524985378668</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C210">
-        <v>150.6096002621235</v>
+        <v>0.0003561517113812585</v>
       </c>
       <c r="D210">
-        <v>0.006429038130846641</v>
+        <v>0.000247631350098342</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0003561517113812585</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C211">
-        <v>151.2793250327657</v>
+        <v>0.001094494283536918</v>
       </c>
       <c r="D211">
-        <v>0.005091904888319935</v>
+        <v>0.000760999002520662</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.001094494283536918</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C212">
-        <v>151.9490498034079</v>
+        <v>0.001227949515387294</v>
       </c>
       <c r="D212">
-        <v>0.006918092607321803</v>
+        <v>0.0008537900749336727</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.001227949515387294</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C213">
-        <v>152.6187745740501</v>
+        <v>0.0006016559504189445</v>
       </c>
       <c r="D213">
-        <v>0.004669098464215473</v>
+        <v>0.0004183298031030729</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0006016559504189445</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C214">
-        <v>153.2884993446923</v>
+        <v>0.0002463960537237853</v>
       </c>
       <c r="D214">
-        <v>0.004319858164095611</v>
+        <v>0.0001713185294151455</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0002463960537237853</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C215">
-        <v>153.9582241153345</v>
+        <v>-0.0007020644712198987</v>
       </c>
       <c r="D215">
-        <v>0.003606463284111086</v>
+        <v>-0.000488143584064245</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.0007020644712198987</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C216">
-        <v>154.6279488859767</v>
+        <v>-0.0025326593657784</v>
       </c>
       <c r="D216">
-        <v>0.0008515736842469326</v>
+        <v>-0.001760951409315392</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.0025326593657784</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C217">
-        <v>155.2976736566189</v>
+        <v>0.003608254684170475</v>
       </c>
       <c r="D217">
-        <v>0.0004790536727701895</v>
+        <v>0.002508810010976744</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.003608254684170475</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C218">
-        <v>155.9673984272611</v>
+        <v>-9.721377226767913e-06</v>
       </c>
       <c r="D218">
-        <v>-0.002667920055847028</v>
+        <v>-6.759248069154421e-06</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-9.721377226767913e-06</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C219">
-        <v>156.6371231979033</v>
+        <v>0.001355219989417122</v>
       </c>
       <c r="D219">
-        <v>-0.005489169228158453</v>
+        <v>0.0009422809014677741</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.001355219989417122</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C220">
-        <v>157.3068479685455</v>
+        <v>0.001729001534494401</v>
       </c>
       <c r="D220">
-        <v>-0.01039707444662262</v>
+        <v>0.001202170228660269</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001729001534494401</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C221">
-        <v>157.9765727391877</v>
+        <v>0.001813086426217581</v>
       </c>
       <c r="D221">
-        <v>-0.003497548411071116</v>
+        <v>0.001260634233169835</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.001813086426217581</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C222">
-        <v>158.6462975098299</v>
+        <v>-9.673978849988885e-06</v>
       </c>
       <c r="D222">
-        <v>-0.003460598970217085</v>
+        <v>-6.72629210219096e-06</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-9.673978849988885e-06</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C223">
-        <v>159.3160222804721</v>
+        <v>-0.001095376941739445</v>
       </c>
       <c r="D223">
-        <v>0.001868334679196318</v>
+        <v>-0.0007616127124520833</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.001095376941739445</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C224">
-        <v>159.9857470511143</v>
+        <v>0.0004873408472736429</v>
       </c>
       <c r="D224">
-        <v>0.007878098433608254</v>
+        <v>0.0003388468119397968</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0004873408472736429</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C225">
-        <v>160.6554718217565</v>
+        <v>-0.0006503787111604709</v>
       </c>
       <c r="D225">
-        <v>0.005855816101163043</v>
+        <v>-0.0004522066107594227</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.0006503787111604709</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C226">
-        <v>161.3251965923987</v>
+        <v>0.0001703013086231664</v>
       </c>
       <c r="D226">
-        <v>0.01171439970127006</v>
+        <v>0.0001184100528797523</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0001703013086231664</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C227">
-        <v>161.9949213630409</v>
+        <v>0.001935038167708569</v>
       </c>
       <c r="D227">
-        <v>0.01818203234398739</v>
+        <v>0.001345426958930262</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.001935038167708569</v>
+        <v>0</v>
       </c>
       <c r="C228">
-        <v>161.9949213630409</v>
+        <v>0.002996747323916082</v>
       </c>
       <c r="D228">
-        <v>0.02320917022177467</v>
+        <v>0.001648211028153845</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.002996747323916082</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C229">
-        <v>162.6646461336831</v>
+        <v>0.00294215383841312</v>
       </c>
       <c r="D229">
-        <v>0.02156489611262341</v>
+        <v>0.00204567184129948</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.00294215383841312</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C230">
-        <v>163.3343709043253</v>
+        <v>-0.002939744613007278</v>
       </c>
       <c r="D230">
-        <v>0.02196051873694125</v>
+        <v>-0.00204399671319852</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.002939744613007278</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>163.3343709043253</v>
+        <v>-0.0003293146269545133</v>
       </c>
       <c r="D231">
-        <v>0.0185638316315788</v>
+        <v>-0.0001811230448249823</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.0003293146269545133</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C232">
-        <v>164.0040956749675</v>
+        <v>-0.002059469600469654</v>
       </c>
       <c r="D232">
-        <v>0.01696696462002552</v>
+        <v>-0.001431943807522106</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.002059469600469654</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C233">
-        <v>164.6738204456097</v>
+        <v>0.002812717515666918</v>
       </c>
       <c r="D233">
-        <v>0.01109038711204321</v>
+        <v>0.001955675105837792</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.002812717515666918</v>
+        <v>0.875</v>
       </c>
       <c r="C234">
-        <v>165.5488204456097</v>
+        <v>-0.003148456714681558</v>
       </c>
       <c r="D234">
-        <v>0.005938731939675852</v>
+        <v>-0.002314765920481789</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.003148456714681558</v>
+        <v>0.875</v>
       </c>
       <c r="C235">
-        <v>166.4238204456097</v>
+        <v>-0.0004889154430749443</v>
       </c>
       <c r="D235">
-        <v>0.007246056352956609</v>
+        <v>-0.0003594538239480292</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.0004889154430749443</v>
+        <v>0.875</v>
       </c>
       <c r="C236">
-        <v>167.2988204456097</v>
+        <v>-0.0009987099819674938</v>
       </c>
       <c r="D236">
-        <v>0.007579929771441373</v>
+        <v>-0.0007342580953783751</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.0009987099819674938</v>
+        <v>0.875</v>
       </c>
       <c r="C237">
-        <v>168.1738204456097</v>
+        <v>-0.003856679967569221</v>
       </c>
       <c r="D237">
-        <v>0.009400662829320131</v>
+        <v>-0.00283545627719928</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.003856679967569221</v>
+        <v>0.875</v>
       </c>
       <c r="C238">
-        <v>169.0488204456097</v>
+        <v>-0.0005215056406804308</v>
       </c>
       <c r="D238">
-        <v>0.0113197499874786</v>
+        <v>-0.0003834143498803597</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.0005215056406804308</v>
+        <v>0.875</v>
       </c>
       <c r="C239">
-        <v>169.9238204456097</v>
+        <v>-0.00440557419731924</v>
       </c>
       <c r="D239">
-        <v>0.01379820772204507</v>
+        <v>-0.003239006896475604</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.00440557419731924</v>
+        <v>0.875</v>
       </c>
       <c r="C240">
-        <v>170.7988204456097</v>
+        <v>-0.003949579383112578</v>
       </c>
       <c r="D240">
-        <v>0.01374858611597063</v>
+        <v>-0.002903756533680395</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.003949579383112578</v>
+        <v>0.875</v>
       </c>
       <c r="C241">
-        <v>171.6738204456097</v>
+        <v>-0.006870772512884926</v>
       </c>
       <c r="D241">
-        <v>0.01088571682055743</v>
+        <v>-0.005051436783629926</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.006870772512884926</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C242">
-        <v>171.9002355399494</v>
+        <v>0.01228697232296305</v>
       </c>
       <c r="D242">
-        <v>0.0102476356933665</v>
+        <v>0.007381114508917531</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.01228697232296305</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C243">
-        <v>172.126650634289</v>
+        <v>6.580115138099529e-05</v>
       </c>
       <c r="D243">
-        <v>0.007670568219184055</v>
+        <v>3.952852015903443e-05</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6.580115138099529e-05</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C244">
-        <v>172.3530657286286</v>
+        <v>0.009489993939274299</v>
       </c>
       <c r="D244">
-        <v>0.00639756247900502</v>
+        <v>0.005700894420003455</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.009489993939274299</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C245">
-        <v>172.5794808229682</v>
+        <v>0.01070244543429766</v>
       </c>
       <c r="D245">
-        <v>0.003139128489977556</v>
+        <v>0.006429246619881897</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.01070244543429766</v>
+        <v>1</v>
       </c>
       <c r="C246">
-        <v>173.5794808229682</v>
+        <v>-0.002668085062612846</v>
       </c>
       <c r="D246">
-        <v>0.00696510977885968</v>
+        <v>-0.00202228233244521</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.002668085062612846</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C247">
-        <v>173.8058959173078</v>
+        <v>0.01043321732179336</v>
       </c>
       <c r="D247">
-        <v>0.008766088199545328</v>
+        <v>0.006267514056710085</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.01043321732179336</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C248">
-        <v>174.0323110116474</v>
+        <v>0.01151783801766726</v>
       </c>
       <c r="D248">
-        <v>0.006888209903589314</v>
+        <v>0.006919074859856456</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.01151783801766726</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C249">
-        <v>174.2587261059871</v>
+        <v>0.008952543065975149</v>
       </c>
       <c r="D249">
-        <v>0.007864897545807938</v>
+        <v>0.005378033235452329</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.008952543065975149</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C250">
-        <v>174.4851412003267</v>
+        <v>-0.002928193960919145</v>
       </c>
       <c r="D250">
-        <v>0.00969312724648189</v>
+        <v>-0.001759044812811368</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.002928193960919145</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C251">
-        <v>174.7115562946663</v>
+        <v>0.0007045417627651318</v>
       </c>
       <c r="D251">
-        <v>0.00918178689562785</v>
+        <v>0.0004232371727219756</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0007045417627651318</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C252">
-        <v>174.9379713890059</v>
+        <v>-0.006048966296859248</v>
       </c>
       <c r="D252">
-        <v>0.008841677598762155</v>
+        <v>-0.003633776631388543</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.006048966296859248</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C253">
-        <v>175.1643864833455</v>
+        <v>-0.002843769365215465</v>
       </c>
       <c r="D253">
-        <v>0.008064597726784506</v>
+        <v>-0.001708328689109084</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.002843769365215465</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C254">
-        <v>175.3908015776851</v>
+        <v>-0.01046526164583916</v>
       </c>
       <c r="D254">
-        <v>0.006478023732548094</v>
+        <v>-0.006286763943413327</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.01046526164583916</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C255">
-        <v>175.6172166720247</v>
+        <v>-0.009174288812618059</v>
       </c>
       <c r="D255">
-        <v>0.006026203016040496</v>
+        <v>-0.005511241865277096</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.009174288812618059</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>176.6172166720247</v>
+        <v>0.001724809974898989</v>
       </c>
       <c r="D256">
-        <v>0.003858000364941818</v>
+        <v>0.001307324413280757</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.001724809974898989</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>177.6172166720247</v>
+        <v>0.0004404937265043429</v>
       </c>
       <c r="D257">
-        <v>0.002786186524046931</v>
+        <v>0.0003338734184847634</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.0004404937265043429</v>
+        <v>1</v>
       </c>
       <c r="C258">
-        <v>178.6172166720247</v>
+        <v>0.002402172336074315</v>
       </c>
       <c r="D258">
-        <v>0.004519443264812926</v>
+        <v>0.001820733057878758</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.002402172336074315</v>
+        <v>1</v>
       </c>
       <c r="C259">
-        <v>179.6172166720247</v>
+        <v>0.002531935179566958</v>
       </c>
       <c r="D259">
-        <v>0.005724726569832111</v>
+        <v>0.001919087158158469</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.002531935179566958</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C260">
-        <v>179.8436317663644</v>
+        <v>0.004413743992172314</v>
       </c>
       <c r="D260">
-        <v>0.006210548031864614</v>
+        <v>0.002651454643418148</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.004413743992172314</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C261">
-        <v>180.070046860704</v>
+        <v>-8.836828751945802e-05</v>
       </c>
       <c r="D261">
-        <v>0.007214056277371381</v>
+        <v>-5.308520536984276e-05</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-8.836828751945802e-05</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C262">
-        <v>180.2964619550436</v>
+        <v>-0.005098320611553575</v>
       </c>
       <c r="D262">
-        <v>0.005532258339883103</v>
+        <v>-0.003062698217910241</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.005098320611553575</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C263">
-        <v>180.5228770493832</v>
+        <v>-0.001136322279124968</v>
       </c>
       <c r="D263">
-        <v>0.005056086468284329</v>
+        <v>-0.0006826193337784701</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.001136322279124968</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C264">
-        <v>180.7492921437228</v>
+        <v>-0.004589352452114781</v>
       </c>
       <c r="D264">
-        <v>0.007658405489422065</v>
+        <v>-0.002756947365099271</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.004589352452114781</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C265">
-        <v>180.9757072380624</v>
+        <v>-0.002267023302174209</v>
       </c>
       <c r="D265">
-        <v>0.007564628549523857</v>
+        <v>-0.001361861827950868</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.002267023302174209</v>
+        <v>1</v>
       </c>
       <c r="C266">
-        <v>181.9757072380624</v>
+        <v>-0.004298993723157452</v>
       </c>
       <c r="D266">
-        <v>0.008394907203882113</v>
+        <v>-0.003258433989027464</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.004298993723157452</v>
+        <v>1</v>
       </c>
       <c r="C267">
-        <v>182.9757072380624</v>
+        <v>0.005047783567569297</v>
       </c>
       <c r="D267">
-        <v>0.008723622725281179</v>
+        <v>0.003825981288882125</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.005047783567569297</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>183.9757072380624</v>
+        <v>0.002376109183780173</v>
       </c>
       <c r="D268">
-        <v>0.01021253687976771</v>
+        <v>0.001800978420685648</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.002376109183780173</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>184.9757072380624</v>
+        <v>-0.002477566534830444</v>
       </c>
       <c r="D269">
-        <v>0.006983557926314083</v>
+        <v>-0.001877878295956014</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.002477566534830444</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C270">
-        <v>185.202122332402</v>
+        <v>0.001739327305424254</v>
       </c>
       <c r="D270">
-        <v>0.006517181624346541</v>
+        <v>0.001044860659922722</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.001739327305424254</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C271">
-        <v>185.4285374267417</v>
+        <v>0.003255789979840884</v>
       </c>
       <c r="D271">
-        <v>0.004999495335248444</v>
+        <v>0.001955840546110761</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.003255789979840884</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C272">
-        <v>185.6549525210813</v>
+        <v>-0.0009106168606631826</v>
       </c>
       <c r="D272">
-        <v>0.00601278725737093</v>
+        <v>-0.0005470320226687924</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.0009106168606631826</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C273">
-        <v>185.8813676154209</v>
+        <v>-0.0006056812447461368</v>
       </c>
       <c r="D273">
-        <v>0.007470730034364471</v>
+        <v>-0.0003638490024934667</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.0006056812447461368</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C274">
-        <v>186.1077827097605</v>
+        <v>-0.001383857214324991</v>
       </c>
       <c r="D274">
-        <v>0.003370758856471669</v>
+        <v>-0.00083132022230039</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.001383857214324991</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C275">
-        <v>186.3341978041001</v>
+        <v>-0.002825439117856376</v>
       </c>
       <c r="D275">
-        <v>0.004489446595038545</v>
+        <v>-0.001697317216862063</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.002825439117856376</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C276">
-        <v>186.5606128984397</v>
+        <v>-0.0008046217392418953</v>
       </c>
       <c r="D276">
-        <v>0.002807313320448768</v>
+        <v>-0.0004833579044212087</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.0008046217392418953</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>187.5606128984397</v>
+        <v>-0.002860604087421947</v>
       </c>
       <c r="D277">
-        <v>0.002036589931062656</v>
+        <v>-0.002168202651098679</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.002860604087421947</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>188.5606128984397</v>
+        <v>-0.00141409063062703</v>
       </c>
       <c r="D278">
-        <v>-0.001760802846890715</v>
+        <v>-0.001071813840894886</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.00141409063062703</v>
+        <v>1</v>
       </c>
       <c r="C279">
-        <v>189.5606128984397</v>
+        <v>0.002286761025162676</v>
       </c>
       <c r="D279">
-        <v>-0.003034402093937612</v>
+        <v>0.001733256740765994</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.002286761025162676</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>190.5606128984397</v>
+        <v>0.001590182701368903</v>
       </c>
       <c r="D280">
-        <v>-0.004135494563296067</v>
+        <v>0.001205283305019185</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.001590182701368903</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>191.5606128984397</v>
+        <v>0.0006409653910086632</v>
       </c>
       <c r="D281">
-        <v>-0.005637965864902414</v>
+        <v>0.0004858214620325031</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.0006409653910086632</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C282">
-        <v>191.7870279927793</v>
+        <v>0.001787090587798801</v>
       </c>
       <c r="D282">
-        <v>-0.005548007439685684</v>
+        <v>0.001073553347369362</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.001787090587798801</v>
+        <v>0.875</v>
       </c>
       <c r="C283">
-        <v>192.6620279927793</v>
+        <v>-0.002354416095414535</v>
       </c>
       <c r="D283">
-        <v>-0.008071885470233917</v>
+        <v>-0.001730982076039303</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.002354416095414535</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C284">
-        <v>192.888443087119</v>
+        <v>-0.0008479873221958201</v>
       </c>
       <c r="D284">
-        <v>-0.008581534161125458</v>
+        <v>-0.0005094087756297873</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.0008479873221958201</v>
+        <v>0.875</v>
       </c>
       <c r="C285">
-        <v>193.763443087119</v>
+        <v>0.003643090321492792</v>
       </c>
       <c r="D285">
-        <v>-0.01021664907041154</v>
+        <v>0.002678423775720062</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.003643090321492792</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>194.763443087119</v>
+        <v>-0.0001237239966673798</v>
       </c>
       <c r="D286">
-        <v>-0.006190193315682685</v>
+        <v>-9.377693989820827e-05</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.0001237239966673798</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>195.763443087119</v>
+        <v>0.001095422750799102</v>
       </c>
       <c r="D287">
-        <v>-0.004822906902466659</v>
+        <v>0.0008302786543582557</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.001095422750799102</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <v>196.763443087119</v>
+        <v>0.0004336886884797053</v>
       </c>
       <c r="D288">
-        <v>-0.007128871879567038</v>
+        <v>0.0003287155213990664</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.0004336886884797053</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>197.763443087119</v>
+        <v>0.00196438922071529</v>
       </c>
       <c r="D289">
-        <v>-0.005733112916523158</v>
+        <v>0.00148891415448653</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.00196438922071529</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>198.763443087119</v>
+        <v>-0.00426013241325407</v>
       </c>
       <c r="D290">
-        <v>-0.005351777226076809</v>
+        <v>-0.003228978953453626</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-0.00426013241325407</v>
+        <v>0.875</v>
       </c>
       <c r="C291">
-        <v>199.638443087119</v>
+        <v>-0.000652898809896385</v>
       </c>
       <c r="D291">
-        <v>-0.003366881278306951</v>
+        <v>-0.000480015465235363</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.000652898809896385</v>
+        <v>0.875</v>
       </c>
       <c r="C292">
-        <v>200.513443087119</v>
+        <v>-0.002124669645022337</v>
       </c>
       <c r="D292">
-        <v>-0.002260842522420367</v>
+        <v>-0.001562070986603122</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>-0.002124669645022337</v>
+        <v>0.875</v>
       </c>
       <c r="C293">
-        <v>201.388443087119</v>
+        <v>0.001418547827666927</v>
       </c>
       <c r="D293">
-        <v>-0.005193392144185495</v>
+        <v>0.001042925619000923</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.001418547827666927</v>
+        <v>0.875</v>
       </c>
       <c r="C294">
-        <v>202.263443087119</v>
+        <v>0.002041032316565605</v>
       </c>
       <c r="D294">
-        <v>-0.006978035521764537</v>
+        <v>0.001500580276983706</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.002041032316565605</v>
+        <v>0.875</v>
       </c>
       <c r="C295">
-        <v>203.138443087119</v>
+        <v>-0.005739713384583567</v>
       </c>
       <c r="D295">
-        <v>-0.004019622527659919</v>
+        <v>-0.004219874732281657</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.005739713384583567</v>
+        <v>0.875</v>
       </c>
       <c r="C296">
-        <v>204.013443087119</v>
+        <v>0.001566095640097132</v>
       </c>
       <c r="D296">
-        <v>-0.003683041682664986</v>
+        <v>0.001151403733456951</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.001566095640097132</v>
+        <v>0.875</v>
       </c>
       <c r="C297">
-        <v>204.888443087119</v>
+        <v>-0.002354885547214636</v>
       </c>
       <c r="D297">
-        <v>-0.002494804951388855</v>
+        <v>-0.001731327220065935</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.002354885547214636</v>
+        <v>0.875</v>
       </c>
       <c r="C298">
-        <v>205.763443087119</v>
+        <v>-0.001078966451697028</v>
       </c>
       <c r="D298">
-        <v>-0.00209128700023378</v>
+        <v>-0.0007932631756012718</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.001078966451697028</v>
+        <v>0.875</v>
       </c>
       <c r="C299">
-        <v>206.638443087119</v>
+        <v>-0.005316121799017637</v>
       </c>
       <c r="D299">
-        <v>-0.003100509602154634</v>
+        <v>-0.003908447434615908</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-0.005316121799017637</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>207.638443087119</v>
+        <v>-0.00168031489583953</v>
       </c>
       <c r="D300">
-        <v>-0.004624271988963313</v>
+        <v>-0.001273599247046897</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-0.00168031489583953</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>208.638443087119</v>
+        <v>-0.001452719198955066</v>
       </c>
       <c r="D301">
-        <v>-0.004526839351542197</v>
+        <v>-0.001101092469358455</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-0.001452719198955066</v>
+        <v>0.875</v>
       </c>
       <c r="C302">
-        <v>209.513443087119</v>
+        <v>-0.002103369576420988</v>
       </c>
       <c r="D302">
-        <v>-0.006354172276988777</v>
+        <v>-0.001546411037183327</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.002103369576420988</v>
+        <v>1</v>
       </c>
       <c r="C303">
-        <v>210.513443087119</v>
+        <v>0.0001186860641197995</v>
       </c>
       <c r="D303">
-        <v>-0.005882229758577885</v>
+        <v>8.99584252167292e-05</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.0001186860641197995</v>
+        <v>0.875</v>
       </c>
       <c r="C304">
-        <v>211.388443087119</v>
+        <v>-0.003533277646219801</v>
       </c>
       <c r="D304">
-        <v>-0.007935590874125414</v>
+        <v>-0.002597688780325799</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>-0.003533277646219801</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>212.388443087119</v>
+        <v>-0.0006724016906698438</v>
       </c>
       <c r="D305">
-        <v>-0.007175001988287433</v>
+        <v>-0.0005096486908915418</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.0006724016906698438</v>
+        <v>0.875</v>
       </c>
       <c r="C306">
-        <v>213.263443087119</v>
+        <v>-0.002289062659944108</v>
       </c>
       <c r="D306">
-        <v>-0.007604699248946627</v>
+        <v>-0.001682933803846794</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.002289062659944108</v>
+        <v>0.875</v>
       </c>
       <c r="C307">
-        <v>214.138443087119</v>
+        <v>0.005636796207852512</v>
       </c>
       <c r="D307">
-        <v>-0.006927664843047199</v>
+        <v>0.004144209352408922</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.005636796207852512</v>
+        <v>0.875</v>
       </c>
       <c r="C308">
-        <v>215.013443087119</v>
+        <v>0.001914118852544888</v>
       </c>
       <c r="D308">
-        <v>-0.008079529960354093</v>
+        <v>0.001407272670118557</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.001914118852544888</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>216.013443087119</v>
+        <v>-0.003042359917603932</v>
       </c>
       <c r="D309">
-        <v>-0.009245514366979984</v>
+        <v>-0.00230596497710038</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>-0.003042359917603932</v>
+        <v>1</v>
       </c>
       <c r="C310">
-        <v>217.013443087119</v>
+        <v>0.001841485523835118</v>
       </c>
       <c r="D310">
-        <v>-0.007805662681417681</v>
+        <v>0.00139575896304388</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.001841485523835118</v>
+        <v>1</v>
       </c>
       <c r="C311">
-        <v>218.013443087119</v>
+        <v>0.0005031127667969315</v>
       </c>
       <c r="D311">
-        <v>-0.009067489705895725</v>
+        <v>0.0003813356904463496</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0005031127667969315</v>
+        <v>1</v>
       </c>
       <c r="C312">
-        <v>219.013443087119</v>
+        <v>0.002618759578778551</v>
       </c>
       <c r="D312">
-        <v>-0.01012344516784378</v>
+        <v>0.001984895947769857</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.002618759578778551</v>
+        <v>0.875</v>
       </c>
       <c r="C313">
-        <v>219.888443087119</v>
+        <v>0.001548387824104935</v>
       </c>
       <c r="D313">
-        <v>-0.01380989285481109</v>
+        <v>0.001138384831595046</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.001548387824104935</v>
+        <v>0.875</v>
       </c>
       <c r="C314">
-        <v>220.763443087119</v>
+        <v>-0.004105393327094475</v>
       </c>
       <c r="D314">
-        <v>-0.01413367996146088</v>
+        <v>-0.003018311961990176</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-0.004105393327094475</v>
+        <v>0.875</v>
       </c>
       <c r="C315">
-        <v>221.638443087119</v>
+        <v>-0.002498393534137833</v>
       </c>
       <c r="D315">
-        <v>-0.01413367996146088</v>
+        <v>-0.001836835228449134</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.002498393534137833</v>
+        <v>0.875</v>
       </c>
       <c r="C316">
-        <v>222.513443087119</v>
+        <v>0.004141600494888209</v>
       </c>
       <c r="D316">
-        <v>-0.01600228210783772</v>
+        <v>0.00304493170800583</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.004141600494888209</v>
+        <v>0.875</v>
       </c>
       <c r="C317">
-        <v>223.388443087119</v>
+        <v>0.00047119296628928</v>
       </c>
       <c r="D317">
-        <v>-0.01915535383890976</v>
+        <v>0.000346424143375103</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.00047119296628928</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <v>224.388443087119</v>
+        <v>0.001567692415001432</v>
       </c>
       <c r="D318">
-        <v>-0.01967466978749966</v>
+        <v>0.001188236731276131</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.001567692415001432</v>
+        <v>0.875</v>
       </c>
       <c r="C319">
-        <v>225.263443087119</v>
+        <v>0.000564900894341136</v>
       </c>
       <c r="D319">
-        <v>-0.02163100195105656</v>
+        <v>0.0004153188235280537</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.000564900894341136</v>
+        <v>0.875</v>
       </c>
       <c r="C320">
-        <v>226.138443087119</v>
+        <v>-0.001412851023808059</v>
       </c>
       <c r="D320">
-        <v>-0.02334922299107345</v>
+        <v>-0.001038737291631935</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>-0.001412851023808059</v>
+        <v>0.875</v>
       </c>
       <c r="C321">
-        <v>227.013443087119</v>
+        <v>-0.002133175816856792</v>
       </c>
       <c r="D321">
-        <v>-0.02058807354008534</v>
+        <v>-0.001568324779639038</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.002133175816856792</v>
+        <v>0.875</v>
       </c>
       <c r="C322">
-        <v>227.888443087119</v>
+        <v>0.0001363998401053834</v>
       </c>
       <c r="D322">
-        <v>-0.02009600079188494</v>
+        <v>0.0001002820524617061</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.0001363998401053834</v>
+        <v>0.875</v>
       </c>
       <c r="C323">
-        <v>228.763443087119</v>
+        <v>-0.002558156337007844</v>
       </c>
       <c r="D323">
-        <v>-0.02113648720843981</v>
+        <v>-0.001880773231074641</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-0.002558156337007844</v>
+        <v>0.875</v>
       </c>
       <c r="C324">
-        <v>229.638443087119</v>
+        <v>0.0006606911785826952</v>
       </c>
       <c r="D324">
-        <v>-0.02280686195503184</v>
+        <v>0.0004857444655391593</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.0006606911785826952</v>
+        <v>0.875</v>
       </c>
       <c r="C325">
-        <v>230.513443087119</v>
+        <v>-0.002874582226782607</v>
       </c>
       <c r="D325">
-        <v>-0.02389595616558914</v>
+        <v>-0.002113411609932847</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.002874582226782607</v>
+        <v>0.875</v>
       </c>
       <c r="C326">
-        <v>231.388443087119</v>
+        <v>0.001064778755457851</v>
       </c>
       <c r="D326">
-        <v>-0.02066023716272107</v>
+        <v>0.0007828322887507551</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.001064778755457851</v>
+        <v>0.875</v>
       </c>
       <c r="C327">
-        <v>232.263443087119</v>
+        <v>-0.000601550355188607</v>
       </c>
       <c r="D327">
-        <v>-0.02015357709172391</v>
+        <v>-0.0004422637462828002</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-0.000601550355188607</v>
+        <v>0.875</v>
       </c>
       <c r="C328">
-        <v>233.138443087119</v>
+        <v>0.0009478075022375521</v>
       </c>
       <c r="D328">
-        <v>-0.01934907327287541</v>
+        <v>0.0006968342601395281</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.0009478075022375521</v>
+        <v>0.875</v>
       </c>
       <c r="C329">
-        <v>234.013443087119</v>
+        <v>-0.001612541977536353</v>
       </c>
       <c r="D329">
-        <v>-0.0195339123515441</v>
+        <v>-0.001185551383807095</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-0.001612541977536353</v>
+        <v>0.875</v>
       </c>
       <c r="C330">
-        <v>234.888443087119</v>
+        <v>-0.001632308134508875</v>
       </c>
       <c r="D330">
-        <v>-0.01991380145240415</v>
+        <v>-0.001200083591388521</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-0.001632308134508875</v>
+        <v>0.875</v>
       </c>
       <c r="C331">
-        <v>235.763443087119</v>
+        <v>0.002015705875201945</v>
       </c>
       <c r="D331">
-        <v>-0.02103348567886098</v>
+        <v>0.001481960112036763</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.002015705875201945</v>
+        <v>0.875</v>
       </c>
       <c r="C332">
-        <v>236.638443087119</v>
+        <v>-0.001766482042722117</v>
       </c>
       <c r="D332">
-        <v>-0.02272436703871741</v>
+        <v>-0.001298729124198801</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.001766482042722117</v>
+        <v>0.875</v>
       </c>
       <c r="C333">
-        <v>237.513443087119</v>
+        <v>-0.001478274220840348</v>
       </c>
       <c r="D333">
-        <v>-0.02545655753310753</v>
+        <v>-0.001086836852979922</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.001478274220840348</v>
+        <v>0.875</v>
       </c>
       <c r="C334">
-        <v>238.388443087119</v>
+        <v>-0.005160805335545859</v>
       </c>
       <c r="D334">
-        <v>-0.0217077598981942</v>
+        <v>-0.003794257757223253</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.005160805335545859</v>
+        <v>0.875</v>
       </c>
       <c r="C335">
-        <v>239.263443087119</v>
+        <v>-0.0004532825010610253</v>
       </c>
       <c r="D335">
-        <v>-0.02347673563678788</v>
+        <v>-0.0003332562524725497</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.0004532825010610253</v>
+        <v>0.875</v>
       </c>
       <c r="C336">
-        <v>240.138443087119</v>
+        <v>0</v>
       </c>
       <c r="D336">
-        <v>-0.02113360850913641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C337">
-        <v>240.888443087119</v>
+        <v>-0.002775174858630436</v>
       </c>
       <c r="D337">
-        <v>-0.02058671671274419</v>
+        <v>-0.001973873171285031</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.002775174858630436</v>
+        <v>0.75</v>
       </c>
       <c r="C338">
-        <v>241.638443087119</v>
+        <v>-0.004682818872115746</v>
       </c>
       <c r="D338">
-        <v>-0.02200915037759303</v>
+        <v>-0.003330705634245372</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.004682818872115746</v>
+        <v>0.75</v>
       </c>
       <c r="C339">
-        <v>242.388443087119</v>
+        <v>-0.000771267745253823</v>
       </c>
       <c r="D339">
-        <v>-0.02337454637122615</v>
+        <v>-0.0005485725360690691</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.000771267745253823</v>
+        <v>0.75</v>
       </c>
       <c r="C340">
-        <v>243.138443087119</v>
+        <v>-0.002905468050521165</v>
       </c>
       <c r="D340">
-        <v>-0.02306396035954545</v>
+        <v>-0.002066545614995883</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>-0.002905468050521165</v>
+        <v>0.75</v>
       </c>
       <c r="C341">
-        <v>243.888443087119</v>
+        <v>-0.002551834718305557</v>
       </c>
       <c r="D341">
-        <v>-0.02795671382244194</v>
+        <v>-0.001815020077870992</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.002551834718305557</v>
+        <v>0.75</v>
       </c>
       <c r="C342">
-        <v>244.638443087119</v>
+        <v>0.004100751223132804</v>
       </c>
       <c r="D342">
-        <v>-0.02796915722372821</v>
+        <v>0.002916703715545596</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.004100751223132804</v>
+        <v>0.75</v>
       </c>
       <c r="C343">
-        <v>245.388443087119</v>
+        <v>0.0007308072090523865</v>
       </c>
       <c r="D343">
-        <v>-0.0277582161069928</v>
+        <v>0.000519794541538218</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.0007308072090523865</v>
+        <v>0.75</v>
       </c>
       <c r="C344">
-        <v>246.138443087119</v>
+        <v>-0.001545289750184864</v>
       </c>
       <c r="D344">
-        <v>-0.02607475405396007</v>
+        <v>-0.001099104069160148</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>-0.001545289750184864</v>
+        <v>0.75</v>
       </c>
       <c r="C345">
-        <v>246.888443087119</v>
+        <v>-0.002480775273763669</v>
       </c>
       <c r="D345">
-        <v>-0.02456317225886665</v>
+        <v>-0.001764478278419526</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>-0.002480775273763669</v>
+        <v>0.75</v>
       </c>
       <c r="C346">
-        <v>247.638443087119</v>
+        <v>-0.001617480145615247</v>
       </c>
       <c r="D346">
-        <v>-0.0246059434134708</v>
+        <v>-0.001150450269678414</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.001617480145615247</v>
+        <v>0.75</v>
       </c>
       <c r="C347">
-        <v>248.388443087119</v>
+        <v>0.004805563369261634</v>
       </c>
       <c r="D347">
-        <v>-0.02049826733137012</v>
+        <v>0.003418008987072195</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.004805563369261634</v>
+        <v>0.75</v>
       </c>
       <c r="C348">
-        <v>249.138443087119</v>
+        <v>0.0007524717306086615</v>
       </c>
       <c r="D348">
-        <v>-0.02172497099913396</v>
+        <v>0.0005352036671058088</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.0007524717306086615</v>
+        <v>0.75</v>
       </c>
       <c r="C349">
-        <v>249.888443087119</v>
+        <v>0.001194817621327005</v>
       </c>
       <c r="D349">
-        <v>-0.01978544381966905</v>
+        <v>0.0008498269721569414</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.001194817621327005</v>
+        <v>0.75</v>
       </c>
       <c r="C350">
-        <v>250.638443087119</v>
+        <v>-0.000274515773734052</v>
       </c>
       <c r="D350">
-        <v>-0.02037186083075292</v>
+        <v>-0.0001952523168704431</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>-0.000274515773734052</v>
+        <v>0.75</v>
       </c>
       <c r="C351">
-        <v>251.388443087119</v>
+        <v>-0.000564196441612097</v>
       </c>
       <c r="D351">
-        <v>-0.02155743423875613</v>
+        <v>-0.0004012908289253503</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.000564196441612097</v>
+        <v>0.75</v>
       </c>
       <c r="C352">
-        <v>252.138443087119</v>
+        <v>-0.001662911241375298</v>
       </c>
       <c r="D352">
-        <v>-0.02217455651099458</v>
+        <v>-0.001182763628522801</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.001662911241375298</v>
+        <v>0.75</v>
       </c>
       <c r="C353">
-        <v>252.888443087119</v>
+        <v>-0.002511230894119976</v>
       </c>
       <c r="D353">
-        <v>-0.02315212301960156</v>
+        <v>-0.001786140168209715</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.002511230894119976</v>
+        <v>0.75</v>
       </c>
       <c r="C354">
-        <v>253.638443087119</v>
+        <v>-0.004057742512884488</v>
       </c>
       <c r="D354">
-        <v>-0.02376340202860447</v>
+        <v>-0.002886113304629068</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.004057742512884488</v>
+        <v>0.75</v>
       </c>
       <c r="C355">
-        <v>254.388443087119</v>
+        <v>0.005567567695818454</v>
       </c>
       <c r="D355">
-        <v>-0.02309147485505526</v>
+        <v>0.003959992816277071</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.005567567695818454</v>
+        <v>0.75</v>
       </c>
       <c r="C356">
-        <v>255.138443087119</v>
+        <v>-0.002627213612480972</v>
       </c>
       <c r="D356">
-        <v>-0.02044456963540833</v>
+        <v>-0.001868634132650737</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.002627213612480972</v>
+        <v>0.875</v>
       </c>
       <c r="C357">
-        <v>256.013443087119</v>
+        <v>0.003280237238953987</v>
       </c>
       <c r="D357">
-        <v>-0.01808219896229163</v>
+        <v>0.002411651821801825</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.003280237238953987</v>
+        <v>0.875</v>
       </c>
       <c r="C358">
-        <v>256.888443087119</v>
+        <v>0.0007656156659336943</v>
       </c>
       <c r="D358">
-        <v>-0.01570142785314205</v>
+        <v>0.0005628856332774874</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.0007656156659336943</v>
+        <v>0.875</v>
       </c>
       <c r="C359">
-        <v>257.763443087119</v>
+        <v>-0.001991321692415227</v>
       </c>
       <c r="D359">
-        <v>-0.01567976750614684</v>
+        <v>-0.001464032701743875</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.001991321692415227</v>
+        <v>0.75</v>
       </c>
       <c r="C360">
-        <v>258.513443087119</v>
+        <v>-0.002027832752387937</v>
       </c>
       <c r="D360">
-        <v>-0.01476566986577508</v>
+        <v>-0.00144231800505968</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.002027832752387937</v>
+        <v>0.75</v>
       </c>
       <c r="C361">
-        <v>259.263443087119</v>
+        <v>0.0004612702028250482</v>
       </c>
       <c r="D361">
-        <v>-0.01660233765637475</v>
+        <v>0.0003280834269732821</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.0004612702028250482</v>
+        <v>0.75</v>
       </c>
       <c r="C362">
-        <v>260.013443087119</v>
+        <v>-0.007266526170932153</v>
       </c>
       <c r="D362">
-        <v>-0.01827005876537391</v>
+        <v>-0.005168395430161099</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>-0.007266526170932153</v>
+        <v>0.75</v>
       </c>
       <c r="C363">
-        <v>260.763443087119</v>
+        <v>-1.848045314112312e-05</v>
       </c>
       <c r="D363">
-        <v>-0.01925481060303673</v>
+        <v>-1.314442242621614e-05</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-1.848045314112312e-05</v>
+        <v>0.75</v>
       </c>
       <c r="C364">
-        <v>261.513443087119</v>
+        <v>0.0003132815002651057</v>
       </c>
       <c r="D364">
-        <v>-0.01948879623538263</v>
+        <v>0.0002228248596697036</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.0003132815002651057</v>
+        <v>0.75</v>
       </c>
       <c r="C365">
-        <v>262.263443087119</v>
+        <v>0.002500212029667992</v>
       </c>
       <c r="D365">
-        <v>-0.01939608575769634</v>
+        <v>0.001778302881542117</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.002500212029667992</v>
+        <v>0.75</v>
       </c>
       <c r="C366">
-        <v>263.013443087119</v>
+        <v>0.002244942189882693</v>
       </c>
       <c r="D366">
-        <v>-0.02035843852531843</v>
+        <v>0.001596739443611906</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.002244942189882693</v>
+        <v>0.75</v>
       </c>
       <c r="C367">
-        <v>263.763443087119</v>
+        <v>-6.352204676751683e-05</v>
       </c>
       <c r="D367">
-        <v>-0.01803984019525428</v>
+        <v>-4.518074366002018e-05</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-6.352204676751683e-05</v>
+        <v>0.75</v>
       </c>
       <c r="C368">
-        <v>264.513443087119</v>
+        <v>0.006100559935964256</v>
       </c>
       <c r="D368">
-        <v>-0.01866343413221109</v>
+        <v>0.004339089318991175</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.006100559935964256</v>
+        <v>0.75</v>
       </c>
       <c r="C369">
-        <v>265.263443087119</v>
+        <v>-0.00182185233189891</v>
       </c>
       <c r="D369">
-        <v>-0.01901859273079848</v>
+        <v>-0.001295812200371773</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-0.00182185233189891</v>
+        <v>0.75</v>
       </c>
       <c r="C370">
-        <v>266.013443087119</v>
+        <v>0.002880509945104137</v>
       </c>
       <c r="D370">
-        <v>-0.02158353534526018</v>
+        <v>0.002048793892240263</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.002880509945104137</v>
+        <v>0.75</v>
       </c>
       <c r="C371">
-        <v>266.763443087119</v>
+        <v>-0.0008709236200914461</v>
       </c>
       <c r="D371">
-        <v>-0.02150015015634283</v>
+        <v>-0.0006194538562464938</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.0008709236200914461</v>
+        <v>0.75</v>
       </c>
       <c r="C372">
-        <v>267.513443087119</v>
+        <v>-0.001760767278005559</v>
       </c>
       <c r="D372">
-        <v>-0.01931055070565969</v>
+        <v>-0.001252364794284328</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>-0.001760767278005559</v>
+        <v>0.75</v>
       </c>
       <c r="C373">
-        <v>268.263443087119</v>
+        <v>-0.0009165258735990278</v>
       </c>
       <c r="D373">
-        <v>-0.02012017585388329</v>
+        <v>-0.0006518889528923232</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.0009165258735990278</v>
+        <v>0.75</v>
       </c>
       <c r="C374">
-        <v>269.013443087119</v>
+        <v>-0.001451843562625399</v>
       </c>
       <c r="D374">
-        <v>-0.01803574293880185</v>
+        <v>-0.001032639456305618</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.001451843562625399</v>
+        <v>0.75</v>
       </c>
       <c r="C375">
-        <v>269.763443087119</v>
+        <v>-0.0009078476874719854</v>
       </c>
       <c r="D375">
-        <v>-0.01808582261104165</v>
+        <v>-0.000645716499031149</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.0009078476874719854</v>
+        <v>0.75</v>
       </c>
       <c r="C376">
-        <v>270.513443087119</v>
+        <v>0.0009979199705405506</v>
       </c>
       <c r="D376">
-        <v>-0.01861649194151102</v>
+        <v>0.0007097813857796448</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.0009979199705405506</v>
+        <v>0.75</v>
       </c>
       <c r="C377">
-        <v>271.263443087119</v>
+        <v>0.003931080156888811</v>
       </c>
       <c r="D377">
-        <v>-0.01875459546145245</v>
+        <v>0.002796023332267829</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.003931080156888811</v>
+        <v>0.75</v>
       </c>
       <c r="C378">
-        <v>272.013443087119</v>
+        <v>0.00350850057167662</v>
       </c>
       <c r="D378">
-        <v>-0.02204788295469681</v>
+        <v>0.002495459026062366</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.00350850057167662</v>
+        <v>0.75</v>
       </c>
       <c r="C379">
-        <v>272.763443087119</v>
+        <v>0.003535828179945355</v>
       </c>
       <c r="D379">
-        <v>-0.02104953915861004</v>
+        <v>0.00251489608338122</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.003535828179945355</v>
+        <v>0.75</v>
       </c>
       <c r="C380">
-        <v>273.513443087119</v>
+        <v>3.216910059045119e-05</v>
       </c>
       <c r="D380">
-        <v>-0.02145296523849619</v>
+        <v>2.288062116244362e-05</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>3.216910059045119e-05</v>
+        <v>0.75</v>
       </c>
       <c r="C381">
-        <v>274.263443087119</v>
+        <v>0.001357582080707687</v>
       </c>
       <c r="D381">
-        <v>-0.02057688607882363</v>
+        <v>0.0009655949565097516</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.001357582080707687</v>
+        <v>0.75</v>
       </c>
       <c r="C382">
-        <v>275.013443087119</v>
+        <v>-0.002727747201838326</v>
       </c>
       <c r="D382">
-        <v>-0.02105228566825367</v>
+        <v>-0.001940139736785318</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>-0.002727747201838326</v>
+        <v>0.75</v>
       </c>
       <c r="C383">
-        <v>275.763443087119</v>
+        <v>-0.002476834194949262</v>
       </c>
       <c r="D383">
-        <v>-0.01931967689009381</v>
+        <v>-0.00176167514343382</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.002476834194949262</v>
+        <v>0.75</v>
       </c>
       <c r="C384">
-        <v>276.513443087119</v>
+        <v>-0.001462514932443426</v>
       </c>
       <c r="D384">
-        <v>-0.01787733909231709</v>
+        <v>-0.001040229583651705</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-0.001462514932443426</v>
+        <v>0.75</v>
       </c>
       <c r="C385">
-        <v>277.263443087119</v>
+        <v>-0.0003475063139717349</v>
       </c>
       <c r="D385">
-        <v>-0.01775365870704274</v>
+        <v>-0.0002471676290478762</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.0003475063139717349</v>
+        <v>0.75</v>
       </c>
       <c r="C386">
-        <v>278.013443087119</v>
+        <v>0.0001376899771337037</v>
       </c>
       <c r="D386">
-        <v>-0.01765060907071302</v>
+        <v>9.793348731661298e-05</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.0001376899771337037</v>
+        <v>0.75</v>
       </c>
       <c r="C387">
-        <v>278.763443087119</v>
+        <v>-0.001429248709264641</v>
       </c>
       <c r="D387">
-        <v>-0.02145830442248478</v>
+        <v>-0.001016568622167286</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>-0.001429248709264641</v>
+        <v>0.75</v>
       </c>
       <c r="C388">
-        <v>279.513443087119</v>
+        <v>0.003443491598964954</v>
       </c>
       <c r="D388">
-        <v>-0.02114040265671207</v>
+        <v>0.002449220690222265</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.003443491598964954</v>
+        <v>0</v>
       </c>
       <c r="C389">
-        <v>279.513443087119</v>
+        <v>-0.001133807158103295</v>
       </c>
       <c r="D389">
-        <v>-0.02522072392845088</v>
+        <v>-0.0006235939369568122</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>-0.001133807158103295</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>279.513443087119</v>
+        <v>-0.0006457429065225284</v>
       </c>
       <c r="D390">
-        <v>-0.0255843249617368</v>
+        <v>-0.0003551585985873906</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>-0.0006457429065225284</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>279.513443087119</v>
+        <v>-0.004663532026293993</v>
       </c>
       <c r="D391">
-        <v>-0.02370669370389267</v>
+        <v>-0.002564942614461696</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>-0.004663532026293993</v>
+        <v>0</v>
       </c>
       <c r="C392">
-        <v>279.513443087119</v>
+        <v>0.0001516094343951835</v>
       </c>
       <c r="D392">
-        <v>-0.02455451563359403</v>
+        <v>8.338518891735092e-05</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.0001516094343951835</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>279.513443087119</v>
+        <v>0.003981089910332969</v>
       </c>
       <c r="D393">
-        <v>-0.02371542273594354</v>
+        <v>0.002189599450683133</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.003981089910332969</v>
+        <v>0</v>
       </c>
       <c r="C394">
-        <v>279.513443087119</v>
+        <v>-0.001472045724042914</v>
       </c>
       <c r="D394">
-        <v>-0.02289503993336453</v>
+        <v>-0.0008096251482236028</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.001472045724042914</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>279.513443087119</v>
+        <v>0.003789878027420812</v>
       </c>
       <c r="D395">
-        <v>-0.02448228030778006</v>
+        <v>0.002084432915081447</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.003789878027420812</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>279.513443087119</v>
+        <v>-9.105394952690915e-05</v>
       </c>
       <c r="D396">
-        <v>-0.02529812454124938</v>
+        <v>-5.007967223980004e-05</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-9.105394952690915e-05</v>
+        <v>0</v>
       </c>
       <c r="C397">
-        <v>279.513443087119</v>
+        <v>-0.0009648533281261251</v>
       </c>
       <c r="D397">
-        <v>-0.02586790701377575</v>
+        <v>-0.0005306693304693689</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.0009648533281261251</v>
+        <v>0</v>
       </c>
       <c r="C398">
-        <v>279.513443087119</v>
+        <v>-0.0002510973089844271</v>
       </c>
       <c r="D398">
-        <v>-0.02640319180150293</v>
+        <v>-0.0001381035199414349</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>-0.0002510973089844271</v>
+        <v>0</v>
       </c>
       <c r="C399">
-        <v>279.513443087119</v>
+        <v>-0.005987795442262467</v>
       </c>
       <c r="D399">
-        <v>-0.0263870333428424</v>
+        <v>-0.003293287493244357</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.005987795442262467</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>279.513443087119</v>
+        <v>0.001815170538339572</v>
       </c>
       <c r="D400">
-        <v>-0.02645033684639396</v>
+        <v>0.0009983437960867647</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.001815170538339572</v>
+        <v>0</v>
       </c>
       <c r="C401">
-        <v>279.513443087119</v>
+        <v>-0.0007335019634293616</v>
       </c>
       <c r="D401">
-        <v>-0.02567640789735452</v>
+        <v>-0.0004034260798861489</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>-0.0007335019634293616</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>279.513443087119</v>
+        <v>0.001592871199404655</v>
       </c>
       <c r="D402">
-        <v>-0.02768311485482591</v>
+        <v>0.0008760791596725604</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.001592871199404655</v>
+        <v>0</v>
       </c>
       <c r="C403">
-        <v>279.513443087119</v>
+        <v>-0.000864362889872794</v>
       </c>
       <c r="D403">
-        <v>-0.02817141855086681</v>
+        <v>-0.0004753995894300367</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.000864362889872794</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>279.513443087119</v>
+        <v>0.003150197778472474</v>
       </c>
       <c r="D404">
-        <v>-0.02865772983067148</v>
+        <v>0.001732608778159861</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.003150197778472474</v>
+        <v>0</v>
       </c>
       <c r="C405">
-        <v>279.513443087119</v>
+        <v>0.002622432359594029</v>
       </c>
       <c r="D405">
-        <v>-0.02756225424428385</v>
+        <v>0.001442337797776716</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.002622432359594029</v>
+        <v>0.75</v>
       </c>
       <c r="C406">
-        <v>280.263443087119</v>
+        <v>0.0001836852731784688</v>
       </c>
       <c r="D406">
-        <v>-0.03026591469263382</v>
+        <v>0.0001306481397233731</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.0001836852731784688</v>
+        <v>0.75</v>
       </c>
       <c r="C407">
-        <v>281.013443087119</v>
+        <v>0.00015304529136273</v>
       </c>
       <c r="D407">
-        <v>-0.03080055503256588</v>
+        <v>0.0001088551208486652</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.00015304529136273</v>
+        <v>0.75</v>
       </c>
       <c r="C408">
-        <v>281.763443087119</v>
+        <v>-0.00565504028241115</v>
       </c>
       <c r="D408">
-        <v>-0.0327715810768302</v>
+        <v>-0.004022208640754321</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-0.00565504028241115</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>281.763443087119</v>
+        <v>0.0005780032104958366</v>
       </c>
       <c r="D409">
-        <v>-0.03193608241479676</v>
+        <v>0.0003179017657727102</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.0005780032104958366</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>281.763443087119</v>
+        <v>-0.007418765948616013</v>
       </c>
       <c r="D410">
-        <v>-0.03130544034547618</v>
+        <v>-0.004080321271738807</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>-0.007418765948616013</v>
+        <v>0</v>
       </c>
       <c r="C411">
-        <v>281.763443087119</v>
+        <v>-0.0006610927877925832</v>
       </c>
       <c r="D411">
-        <v>-0.03087996154963804</v>
+        <v>-0.0003636010332859208</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.0006610927877925832</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>281.763443087119</v>
+        <v>0.003413875014262047</v>
       </c>
       <c r="D412">
-        <v>-0.03135242593958973</v>
+        <v>0.001877631257844126</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.003413875014262047</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>281.763443087119</v>
+        <v>-0.001541494417638845</v>
       </c>
       <c r="D413">
-        <v>-0.03207865421009985</v>
+        <v>-0.0008478219297013645</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.001541494417638845</v>
+        <v>0</v>
       </c>
       <c r="C414">
-        <v>281.763443087119</v>
+        <v>0.001525623450273628</v>
       </c>
       <c r="D414">
-        <v>-0.03129275118117283</v>
+        <v>0.0008390928976504953</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.001525623450273628</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>281.763443087119</v>
+        <v>0.001491605095598203</v>
       </c>
       <c r="D415">
-        <v>-0.03272787913982944</v>
+        <v>0.0008203828025790117</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.001491605095598203</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>281.763443087119</v>
+        <v>-0.002885891589846423</v>
       </c>
       <c r="D416">
-        <v>-0.03503645259258195</v>
+        <v>-0.001587240374415533</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>-0.002885891589846423</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>281.763443087119</v>
+        <v>-0.001483353151762401</v>
       </c>
       <c r="D417">
-        <v>-0.03657618866422517</v>
+        <v>-0.0008158442334693206</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>-0.001483353151762401</v>
+        <v>0</v>
       </c>
       <c r="C418">
-        <v>281.763443087119</v>
+        <v>-0.001035968131866127</v>
       </c>
       <c r="D418">
-        <v>-0.03936819332240348</v>
+        <v>-0.00056978247252637</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.001035968131866127</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>281.763443087119</v>
+        <v>-0.0009732450685948635</v>
       </c>
       <c r="D419">
-        <v>-0.0383798537463203</v>
+        <v>-0.000535284787727175</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.0009732450685948635</v>
+        <v>0</v>
       </c>
       <c r="C420">
-        <v>281.763443087119</v>
+        <v>2.937901574640023e-05</v>
       </c>
       <c r="D420">
-        <v>-0.03704059377816245</v>
+        <v>1.615845866052013e-05</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>2.937901574640023e-05</v>
+        <v>0.75</v>
       </c>
       <c r="C421">
-        <v>282.513443087119</v>
+        <v>-9.40158887541287e-05</v>
       </c>
       <c r="D421">
-        <v>-0.03357894237169756</v>
+        <v>-6.686981899867569e-05</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-9.40158887541287e-05</v>
+        <v>0.75</v>
       </c>
       <c r="C422">
-        <v>283.263443087119</v>
+        <v>0.001149409019948422</v>
       </c>
       <c r="D422">
-        <v>-0.03601002130692769</v>
+        <v>0.0008175296126849713</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.001149409019948422</v>
+        <v>0.75</v>
       </c>
       <c r="C423">
-        <v>284.013443087119</v>
+        <v>-0.002980282725143724</v>
       </c>
       <c r="D423">
-        <v>-0.03672622803888213</v>
+        <v>-0.002119758362508581</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>-0.002980282725143724</v>
+        <v>0.75</v>
       </c>
       <c r="C424">
-        <v>284.763443087119</v>
+        <v>-0.0007252095601284481</v>
       </c>
       <c r="D424">
-        <v>-0.03570112405935182</v>
+        <v>-0.0005158131531226832</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.0007252095601284481</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C425">
-        <v>284.7813002299761</v>
+        <v>-0.0008840869978516963</v>
       </c>
       <c r="D425">
-        <v>-0.03688541345107647</v>
+        <v>-0.000489799889689319</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.0008840869978516963</v>
+        <v>0.75</v>
       </c>
       <c r="C426">
-        <v>285.5313002299761</v>
+        <v>0.001626957515531657</v>
       </c>
       <c r="D426">
-        <v>-0.04030351864373406</v>
+        <v>0.001157191151664344</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.001626957515531657</v>
+        <v>0.75</v>
       </c>
       <c r="C427">
-        <v>286.2813002299761</v>
+        <v>-0.004015370803829299</v>
       </c>
       <c r="D427">
-        <v>-0.03990021474615755</v>
+        <v>-0.002855975967709402</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>-0.004015370803829299</v>
+        <v>0.75</v>
       </c>
       <c r="C428">
-        <v>287.0313002299761</v>
+        <v>-0.000794026932199543</v>
       </c>
       <c r="D428">
-        <v>-0.03897390673544542</v>
+        <v>-0.0005647602542493165</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.000794026932199543</v>
+        <v>0.75</v>
       </c>
       <c r="C429">
-        <v>287.7813002299761</v>
+        <v>-0.002927290827720697</v>
       </c>
       <c r="D429">
-        <v>-0.04192146937171994</v>
+        <v>-0.002082067301603531</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.002927290827720697</v>
+        <v>0.75</v>
       </c>
       <c r="C430">
-        <v>288.5313002299761</v>
+        <v>0.001240849950745471</v>
       </c>
       <c r="D430">
-        <v>-0.04237748605956816</v>
+        <v>0.0008825679649517902</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.001240849950745471</v>
+        <v>0.75</v>
       </c>
       <c r="C431">
-        <v>289.2813002299761</v>
+        <v>0.0009366049476966509</v>
       </c>
       <c r="D431">
-        <v>-0.03973395113174245</v>
+        <v>0.0006661704117857286</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.0009366049476966509</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C432">
-        <v>289.2991573728333</v>
+        <v>0.0007734969080157583</v>
       </c>
       <c r="D432">
-        <v>-0.03883341982043868</v>
+        <v>0.0004285310169041763</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.0007734969080157583</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C433">
-        <v>289.3170145156905</v>
+        <v>-0.0008589141182824278</v>
       </c>
       <c r="D433">
-        <v>-0.03611949074192641</v>
+        <v>-0.0004758536675797857</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.0008589141182824278</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C434">
-        <v>289.3348716585476</v>
+        <v>-0.001320242811740258</v>
       </c>
       <c r="D434">
-        <v>-0.04016837926684789</v>
+        <v>-0.0007314379525146794</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.001320242811740258</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>290.3348716585476</v>
+        <v>0.001036876057561642</v>
       </c>
       <c r="D435">
-        <v>-0.03851770869109526</v>
+        <v>0.0007859030289270116</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.001036876057561642</v>
+        <v>1</v>
       </c>
       <c r="C436">
-        <v>291.3348716585476</v>
+        <v>-0.001893426752534566</v>
       </c>
       <c r="D436">
-        <v>-0.03975797129626202</v>
+        <v>-0.001435127958656608</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.001893426752534566</v>
+        <v>1</v>
       </c>
       <c r="C437">
-        <v>292.3348716585476</v>
+        <v>-0.003045801393016134</v>
       </c>
       <c r="D437">
-        <v>-0.03655960915828656</v>
+        <v>-0.002308573452752511</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>-0.003045801393016134</v>
+        <v>1</v>
       </c>
       <c r="C438">
-        <v>293.3348716585476</v>
+        <v>-0.002031440787078509</v>
       </c>
       <c r="D438">
-        <v>-0.03742508025016933</v>
+        <v>-0.001539736071643221</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.002031440787078509</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>294.3348716585476</v>
+        <v>-0.003683613214493064</v>
       </c>
       <c r="D439">
-        <v>-0.03866679612258367</v>
+        <v>-0.002792004658178309</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>-0.003683613214493064</v>
+        <v>1</v>
       </c>
       <c r="C440">
-        <v>295.3348716585476</v>
+        <v>0.001303959401429466</v>
       </c>
       <c r="D440">
-        <v>-0.04052117001678478</v>
+        <v>0.0009883395760831785</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.001303959401429466</v>
+        <v>1</v>
       </c>
       <c r="C441">
-        <v>296.3348716585476</v>
+        <v>0.00176694394183663</v>
       </c>
       <c r="D441">
-        <v>-0.03899100043892907</v>
+        <v>0.001339259968157849</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.00176694394183663</v>
+        <v>1</v>
       </c>
       <c r="C442">
-        <v>297.3348716585476</v>
+        <v>0.004567107303159901</v>
       </c>
       <c r="D442">
-        <v>-0.03843280678182136</v>
+        <v>0.003461651406464903</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.004567107303159901</v>
+        <v>0.875</v>
       </c>
       <c r="C443">
-        <v>298.2098716585476</v>
+        <v>-0.003403364486745275</v>
       </c>
       <c r="D443">
-        <v>-0.04004627266128576</v>
+        <v>-0.002502175777789836</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>-0.003403364486745275</v>
+        <v>0.875</v>
       </c>
       <c r="C444">
-        <v>299.0848716585476</v>
+        <v>-0.001002646405831698</v>
       </c>
       <c r="D444">
-        <v>-0.03724303175807306</v>
+        <v>-0.0007371521798887132</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>-0.001002646405831698</v>
+        <v>0.875</v>
       </c>
       <c r="C445">
-        <v>299.9598716585476</v>
+        <v>0.001435083998547526</v>
       </c>
       <c r="D445">
-        <v>-0.03782305754966479</v>
+        <v>0.001055083119731736</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.001435083998547526</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C446">
-        <v>299.9777288014048</v>
+        <v>-0.002152972584427815</v>
       </c>
       <c r="D446">
-        <v>-0.03669149891039356</v>
+        <v>-0.001192785027852843</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.002152972584427815</v>
+        <v>0.875</v>
       </c>
       <c r="C447">
-        <v>300.8527288014048</v>
+        <v>-0.004785141961484385</v>
       </c>
       <c r="D447">
-        <v>-0.0348571382986639</v>
+        <v>-0.003518067593389715</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>-0.004785141961484385</v>
+        <v>0.875</v>
       </c>
       <c r="C448">
-        <v>301.7277288014048</v>
+        <v>0.0005646012321882665</v>
       </c>
       <c r="D448">
-        <v>-0.03441188361185259</v>
+        <v>0.0004150985099579525</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.0005646012321882665</v>
+        <v>0.875</v>
       </c>
       <c r="C449">
-        <v>302.6027288014048</v>
+        <v>0.001296775576374642</v>
       </c>
       <c r="D449">
-        <v>-0.03424673007637165</v>
+        <v>0.0009533978652804042</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.001296775576374642</v>
+        <v>0.875</v>
       </c>
       <c r="C450">
-        <v>303.4777288014048</v>
+        <v>-0.004126410645652001</v>
       </c>
       <c r="D450">
-        <v>-0.03283901131092457</v>
+        <v>-0.003033764031732793</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>-0.004126410645652001</v>
+        <v>0.875</v>
       </c>
       <c r="C451">
-        <v>304.3527288014048</v>
+        <v>-0.0006383959723788024</v>
       </c>
       <c r="D451">
-        <v>-0.03572962132996473</v>
+        <v>-0.0004693528844606482</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>-0.0006383959723788024</v>
+        <v>1</v>
       </c>
       <c r="C452">
-        <v>305.3527288014048</v>
+        <v>0.003487730639914588</v>
       </c>
       <c r="D452">
-        <v>-0.03637672663682121</v>
+        <v>0.002643534927825707</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.003487730639914588</v>
+        <v>1</v>
       </c>
       <c r="C453">
-        <v>306.3527288014048</v>
+        <v>0.001188110137519516</v>
       </c>
       <c r="D453">
-        <v>-0.03938441782103673</v>
+        <v>0.0009005313113037767</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.001188110137519516</v>
+        <v>1</v>
       </c>
       <c r="C454">
-        <v>307.3527288014048</v>
+        <v>0.003580604705483381</v>
       </c>
       <c r="D454">
-        <v>-0.03930528563543083</v>
+        <v>0.002713929078512267</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.003580604705483381</v>
+        <v>1</v>
       </c>
       <c r="C455">
-        <v>308.3527288014048</v>
+        <v>-0.005341874781878531</v>
       </c>
       <c r="D455">
-        <v>-0.0395478973496208</v>
+        <v>-0.00404888852492148</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.005341874781878531</v>
+        <v>1</v>
       </c>
       <c r="C456">
-        <v>309.3527288014048</v>
+        <v>0.002177801504666732</v>
       </c>
       <c r="D456">
-        <v>-0.03954659975422324</v>
+        <v>0.001650670575752626</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.002177801504666732</v>
+        <v>1</v>
       </c>
       <c r="C457">
-        <v>310.3527288014048</v>
+        <v>-0.001636332413863073</v>
       </c>
       <c r="D457">
-        <v>-0.03867382149224492</v>
+        <v>-0.001240262605166756</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.001636332413863073</v>
+        <v>1</v>
       </c>
       <c r="C458">
-        <v>311.3527288014048</v>
+        <v>0.004219738316578514</v>
       </c>
       <c r="D458">
-        <v>-0.03750305089249206</v>
+        <v>0.003198362137975464</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.004219738316578514</v>
+        <v>1</v>
       </c>
       <c r="C459">
-        <v>312.3527288014048</v>
+        <v>-0.001141853664707426</v>
       </c>
       <c r="D459">
-        <v>-0.03985224482612491</v>
+        <v>-0.0008654710918827685</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>-0.001141853664707426</v>
+        <v>1</v>
       </c>
       <c r="C460">
-        <v>313.3527288014048</v>
+        <v>-0.001638249772568656</v>
       </c>
       <c r="D460">
-        <v>-0.0425219766303254</v>
+        <v>-0.001241715872414339</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>-0.001638249772568656</v>
+        <v>1</v>
       </c>
       <c r="C461">
-        <v>314.3527288014048</v>
+        <v>-0.002446556155012658</v>
       </c>
       <c r="D461">
-        <v>-0.04465945849892045</v>
+        <v>-0.001854373894201105</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.002446556155012658</v>
+        <v>1</v>
       </c>
       <c r="C462">
-        <v>315.3527288014048</v>
+        <v>0.002018819295624752</v>
       </c>
       <c r="D462">
-        <v>-0.04479076075457104</v>
+        <v>0.001530169577855708</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.002018819295624752</v>
+        <v>1</v>
       </c>
       <c r="C463">
-        <v>316.3527288014048</v>
+        <v>0.00073644917659621</v>
       </c>
       <c r="D463">
-        <v>-0.04538353707775212</v>
+        <v>0.0005581936571077174</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.00073644917659621</v>
+        <v>1</v>
       </c>
       <c r="C464">
-        <v>317.3527288014048</v>
+        <v>-0.002128715730226105</v>
       </c>
       <c r="D464">
-        <v>-0.04237087871696935</v>
+        <v>-0.001613465879464397</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.002128715730226105</v>
+        <v>0.875</v>
       </c>
       <c r="C465">
-        <v>318.2277288014048</v>
+        <v>0.003924368888039709</v>
       </c>
       <c r="D465">
-        <v>-0.03719447074721596</v>
+        <v>0.002885221613202997</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.003924368888039709</v>
+        <v>0.875</v>
       </c>
       <c r="C466">
-        <v>319.1027288014048</v>
+        <v>-0.0008120012690220335</v>
       </c>
       <c r="D466">
-        <v>-0.03760852742181613</v>
+        <v>-0.0005969886313365672</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>-0.0008120012690220335</v>
+        <v>0.875</v>
       </c>
       <c r="C467">
-        <v>319.9777288014048</v>
+        <v>0.00158411412799353</v>
       </c>
       <c r="D467">
-        <v>-0.03927934245485468</v>
+        <v>0.001164651043329978</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.00158411412799353</v>
+        <v>0.875</v>
       </c>
       <c r="C468">
-        <v>320.8527288014048</v>
+        <v>0.002567994675686691</v>
       </c>
       <c r="D468">
-        <v>-0.03795288427391139</v>
+        <v>0.001888006441867014</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.002567994675686691</v>
+        <v>0.875</v>
       </c>
       <c r="C469">
-        <v>321.7277288014048</v>
+        <v>0.000623329817345919</v>
       </c>
       <c r="D469">
-        <v>-0.03424247042575822</v>
+        <v>0.0004582761489730076</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.000623329817345919</v>
+        <v>0.875</v>
       </c>
       <c r="C470">
-        <v>322.6027288014048</v>
+        <v>0.0002312050297383905</v>
       </c>
       <c r="D470">
-        <v>-0.03205638726581218</v>
+        <v>0.0001699834464888093</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.0002312050297383905</v>
+        <v>0.875</v>
       </c>
       <c r="C471">
-        <v>323.4777288014048</v>
+        <v>0.001970721717102109</v>
       </c>
       <c r="D471">
-        <v>-0.0304178018794489</v>
+        <v>0.001448887465477734</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.001970721717102109</v>
+        <v>0.875</v>
       </c>
       <c r="C472">
-        <v>324.3527288014048</v>
+        <v>-0.004046680402378655</v>
       </c>
       <c r="D472">
-        <v>-0.03316499040862518</v>
+        <v>-0.002975145836634142</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>-0.004046680402378655</v>
+        <v>1</v>
       </c>
       <c r="C473">
-        <v>325.3527288014048</v>
+        <v>-0.0008537541843001151</v>
       </c>
       <c r="D473">
-        <v>-0.03436620038540775</v>
+        <v>-0.0006471053068564868</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>-0.0008537541843001151</v>
+        <v>1</v>
       </c>
       <c r="C474">
-        <v>326.3527288014048</v>
+        <v>-0.003968177831952246</v>
       </c>
       <c r="D474">
-        <v>-0.03633716476911815</v>
+        <v>-0.003007691184215518</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.003968177831952246</v>
+        <v>1</v>
       </c>
       <c r="C475">
-        <v>327.3527288014048</v>
+        <v>0.0001044025351948363</v>
       </c>
       <c r="D475">
-        <v>-0.0344048354029601</v>
+        <v>7.913218560589913e-05</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.0001044025351948363</v>
+        <v>1</v>
       </c>
       <c r="C476">
-        <v>328.3527288014048</v>
+        <v>-0.0003200881895963903</v>
       </c>
       <c r="D476">
-        <v>-0.0335173710405489</v>
+        <v>-0.0002426117141899688</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.0003200881895963903</v>
+        <v>1</v>
       </c>
       <c r="C477">
-        <v>329.3527288014048</v>
+        <v>1.711974061180399e-06</v>
       </c>
       <c r="D477">
-        <v>-0.03315149003001215</v>
+        <v>1.297595397554221e-06</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.711974061180399e-06</v>
+        <v>1</v>
       </c>
       <c r="C478">
-        <v>330.3527288014048</v>
+        <v>0.001151494332120251</v>
       </c>
       <c r="D478">
-        <v>-0.03579829947808896</v>
+        <v>0.0008727782619783287</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.001151494332120251</v>
+        <v>1</v>
       </c>
       <c r="C479">
-        <v>331.3527288014048</v>
+        <v>0.001544648587801234</v>
       </c>
       <c r="D479">
-        <v>-0.03398381992969678</v>
+        <v>0.001170770599752856</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.001544648587801234</v>
+        <v>1</v>
       </c>
       <c r="C480">
-        <v>332.3527288014048</v>
+        <v>-0.00309939376067625</v>
       </c>
       <c r="D480">
-        <v>-0.0330222842844814</v>
+        <v>-0.002349193933632841</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.00309939376067625</v>
+        <v>1</v>
       </c>
       <c r="C481">
-        <v>333.3527288014048</v>
+        <v>-0.003522293318637182</v>
       </c>
       <c r="D481">
-        <v>-0.03337855724313188</v>
+        <v>-0.002669731804200493</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.003522293318637182</v>
+        <v>1</v>
       </c>
       <c r="C482">
-        <v>334.3527288014048</v>
+        <v>-0.002820072822526498</v>
       </c>
       <c r="D482">
-        <v>-0.02981595916670335</v>
+        <v>-0.002137481868595045</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.002820072822526498</v>
+        <v>1</v>
       </c>
       <c r="C483">
-        <v>335.3527288014048</v>
+        <v>-0.0001732327783159349</v>
       </c>
       <c r="D483">
-        <v>-0.02802235267044551</v>
+        <v>-0.0001313022556505902</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.0001732327783159349</v>
+        <v>1</v>
       </c>
       <c r="C484">
-        <v>336.3527288014048</v>
+        <v>-0.0007820755925003198</v>
       </c>
       <c r="D484">
-        <v>-0.02741085839665404</v>
+        <v>-0.0005927763231810844</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.0007820755925003198</v>
+        <v>1</v>
       </c>
       <c r="C485">
-        <v>337.3527288014048</v>
+        <v>0.003974731244099416</v>
       </c>
       <c r="D485">
-        <v>-0.02867952571874642</v>
+        <v>0.003012658360782773</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.003974731244099416</v>
+        <v>1</v>
       </c>
       <c r="C486">
-        <v>338.3527288014048</v>
+        <v>0.00682946023930775</v>
       </c>
       <c r="D486">
-        <v>-0.02779140246117273</v>
+        <v>0.005176407969753385</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.00682946023930775</v>
+        <v>1</v>
       </c>
       <c r="C487">
-        <v>339.3527288014048</v>
+        <v>-0.0005462829847502348</v>
       </c>
       <c r="D487">
-        <v>-0.02588915202886449</v>
+        <v>-0.0004140566746001604</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>-0.0005462829847502348</v>
+        <v>1</v>
       </c>
       <c r="C488">
-        <v>340.3527288014048</v>
+        <v>-0.002204378963568843</v>
       </c>
       <c r="D488">
-        <v>-0.02610032281097497</v>
+        <v>-0.001670815033038553</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.002204378963568843</v>
+        <v>1</v>
       </c>
       <c r="C489">
-        <v>341.3527288014048</v>
+        <v>0.001750053987009892</v>
       </c>
       <c r="D489">
-        <v>-0.02751653918270698</v>
+        <v>0.001326458180943291</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.001750053987009892</v>
+        <v>1</v>
       </c>
       <c r="C490">
-        <v>342.3527288014048</v>
+        <v>0.004895310415138354</v>
       </c>
       <c r="D490">
-        <v>-0.02941161717402679</v>
+        <v>0.003710413848153169</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.004895310415138354</v>
+        <v>1</v>
       </c>
       <c r="C491">
-        <v>343.3527288014048</v>
+        <v>0.002884194620653702</v>
       </c>
       <c r="D491">
-        <v>-0.03012960757825081</v>
+        <v>0.002186083159946031</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.002884194620653702</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="C492">
-        <v>343.6062499281654</v>
+        <v>0.002902943912065581</v>
       </c>
       <c r="D492">
-        <v>-0.02834948784943733</v>
+        <v>0.001761328362072717</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.002902943912065581</v>
+        <v>1</v>
       </c>
       <c r="C493">
-        <v>344.6062499281654</v>
+        <v>-0.003624485345730122</v>
       </c>
       <c r="D493">
-        <v>-0.02988248697480488</v>
+        <v>-0.002747188529176282</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>-0.003624485345730122</v>
+        <v>1</v>
       </c>
       <c r="C494">
-        <v>345.6062499281654</v>
+        <v>-0.001584808582212105</v>
       </c>
       <c r="D494">
-        <v>-0.02864200248075762</v>
+        <v>-0.001201209976782564</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>-0.001584808582212105</v>
+        <v>1</v>
       </c>
       <c r="C495">
-        <v>346.6062499281654</v>
+        <v>-0.002600379060208269</v>
       </c>
       <c r="D495">
-        <v>-0.02935118979503966</v>
+        <v>-0.001970964383710403</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>-0.002600379060208269</v>
+        <v>1</v>
       </c>
       <c r="C496">
-        <v>347.6062499281654</v>
+        <v>0.002549406200696325</v>
       </c>
       <c r="D496">
-        <v>-0.03043168814996441</v>
+        <v>0.001932329366158051</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.002549406200696325</v>
+        <v>1</v>
       </c>
       <c r="C497">
-        <v>348.6062499281654</v>
+        <v>0.001170870343354835</v>
       </c>
       <c r="D497">
-        <v>-0.03244500976065274</v>
+        <v>0.0008874643624111939</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.001170870343354835</v>
+        <v>1</v>
       </c>
       <c r="C498">
-        <v>349.6062499281654</v>
+        <v>0.0004827227352208752</v>
       </c>
       <c r="D498">
-        <v>-0.03293937903779845</v>
+        <v>0.0003658810105367526</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.0004827227352208752</v>
+        <v>1</v>
       </c>
       <c r="C499">
-        <v>350.6062499281654</v>
+        <v>-0.003492050856943152</v>
       </c>
       <c r="D499">
-        <v>-0.03323574060410948</v>
+        <v>-0.002646809448076811</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.003492050856943152</v>
+        <v>1</v>
       </c>
       <c r="C500">
-        <v>351.6062499281654</v>
+        <v>0.002393921808943489</v>
       </c>
       <c r="D500">
-        <v>-0.03611494407742852</v>
+        <v>0.001814479548392186</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.002393921808943489</v>
+        <v>1</v>
       </c>
       <c r="C501">
-        <v>352.6062499281654</v>
+        <v>0.001268595809303719</v>
       </c>
       <c r="D501">
-        <v>-0.03521513324229686</v>
+        <v>0.0009615356452153733</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.001268595809303719</v>
+        <v>0.875</v>
       </c>
       <c r="C502">
-        <v>353.4812499281654</v>
+        <v>-0.0004987607426016893</v>
       </c>
       <c r="D502">
-        <v>-0.03554737050569645</v>
+        <v>-0.0003666921524011964</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.0004987607426016893</v>
+        <v>0.875</v>
       </c>
       <c r="C503">
-        <v>354.3562499281654</v>
+        <v>0.004987423319809281</v>
       </c>
       <c r="D503">
-        <v>-0.0340434338674114</v>
+        <v>0.003666786167926825</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.004987423319809281</v>
+        <v>0.875</v>
       </c>
       <c r="C504">
-        <v>355.2312499281654</v>
+        <v>0.002510941361919095</v>
+      </c>
+      <c r="D504">
+        <v>0.001846060473309163</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.002510941361919095</v>
+        <v>0.875</v>
       </c>
       <c r="C505">
-        <v>356.1062499281654</v>
+        <v>0.0008560552539496058</v>
+      </c>
+      <c r="D505">
+        <v>0.0006293774085099186</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.0008560552539496058</v>
+        <v>0.875</v>
       </c>
       <c r="C506">
-        <v>356.9812499281654</v>
+        <v>-0.001776058048520213</v>
+      </c>
+      <c r="D506">
+        <v>-0.001305769466145509</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>-0.001776058048520213</v>
+        <v>0.875</v>
       </c>
       <c r="C507">
-        <v>357.8562499281654</v>
+        <v>0.001243319215545213</v>
+      </c>
+      <c r="D507">
+        <v>0.0009140963999930037</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.001243319215545213</v>
+        <v>1</v>
       </c>
       <c r="C508">
-        <v>358.8562499281654</v>
+        <v>0.002509721754654137</v>
+      </c>
+      <c r="D508">
+        <v>0.001902250432308244</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.002509721754654137</v>
+        <v>0.875</v>
       </c>
       <c r="C509">
-        <v>359.7312499281654</v>
+        <v>-0.0002956264109972295</v>
+      </c>
+      <c r="D509">
+        <v>-0.0002173464663432548</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.0002956264109972295</v>
+        <v>0.875</v>
       </c>
       <c r="C510">
-        <v>360.6062499281654</v>
+        <v>-0.001982617855492919</v>
+      </c>
+      <c r="D510">
+        <v>-0.001457633584045594</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>-0.001982617855492919</v>
+        <v>0.875</v>
       </c>
       <c r="C511">
-        <v>361.4812499281654</v>
+        <v>-0.002652995360127974</v>
+      </c>
+      <c r="D511">
+        <v>-0.001950499499702243</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>-0.002652995360127974</v>
+        <v>1</v>
       </c>
       <c r="C512">
-        <v>362.4812499281654</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.0009472759771842476</v>
+      </c>
+      <c r="D512">
+        <v>-0.0007179904042240232</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.0009472759771842476</v>
+        <v>0.875</v>
       </c>
       <c r="C513">
-        <v>363.3562499281654</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.00249206069757868</v>
+      </c>
+      <c r="D513">
+        <v>0.001832179285688749</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.00249206069757868</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C514">
-        <v>364.0259746988075</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>-0.002361144720532948</v>
+      </c>
+      <c r="D514">
+        <v>-0.001641697726666924</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-0.002361144720532948</v>
+        <v>0.875</v>
       </c>
       <c r="C515">
-        <v>364.9009746988075</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.001736603782056534</v>
+      </c>
+      <c r="D515">
+        <v>0.00127676243200022</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.001736603782056534</v>
+        <v>0.875</v>
       </c>
       <c r="C516">
-        <v>365.7759746988075</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>-0.0009928196427111402</v>
+      </c>
+      <c r="D516">
+        <v>-0.0007299274795223263</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>-0.0009928196427111402</v>
+        <v>0.875</v>
       </c>
       <c r="C517">
-        <v>366.6509746988075</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-0.001512632796840663</v>
+      </c>
+      <c r="D517">
+        <v>-0.001112097502246893</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.001512632796840663</v>
+        <v>0.875</v>
       </c>
       <c r="C518">
-        <v>367.5259746988075</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.002818529324949637</v>
+      </c>
+      <c r="D518">
+        <v>-0.002072201150757074</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.002818529324949637</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C519">
-        <v>368.1956994694497</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>-0.00076143383868299</v>
+      </c>
+      <c r="D519">
+        <v>-0.0005294229494289442</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>-0.00076143383868299</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C520">
-        <v>368.8654242400919</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>-0.0004564598479444015</v>
+      </c>
+      <c r="D520">
+        <v>-0.0003173753341624519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>-0.0004564598479444015</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C521">
-        <v>369.5351490107341</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.004434585752772335</v>
+      </c>
+      <c r="D521">
+        <v>-0.003083355834026388</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.004434585752772335</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C522">
-        <v>370.2048737813763</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>0.001385900075018043</v>
+      </c>
+      <c r="D522">
+        <v>0.0009636126844571746</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.001385900075018043</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C523">
-        <v>370.8745985520184</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>-0.000511716052187694</v>
+      </c>
+      <c r="D523">
+        <v>-0.0003557948279366331</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>-0.000511716052187694</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="C524">
-        <v>371.5443233226606</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>0.00231638230886233</v>
       </c>
-      <c r="C525">
-        <v>372.2140480933028</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>372.883772863945</v>
+      <c r="D524">
+        <v>0.001610574539324474</v>
       </c>
     </row>
   </sheetData>
